--- a/capiq_data/in_process_data/IQ272285.xlsx
+++ b/capiq_data/in_process_data/IQ272285.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7D668-D1F1-47D1-8E7A-A0572E94F6AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4169BB-E460-4EC7-BED3-120B40EDEBDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"111dff6d-34cc-45e1-b532-9bde347c6e13"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"da52a443-4a6c-4381-b443-b6d37d86e3f2"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>204.44200000000001</v>
+        <v>71.966999999999999</v>
       </c>
       <c r="D2">
-        <v>748.49599999999998</v>
+        <v>346.82600000000002</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>748.49599999999998</v>
+        <v>346.82600000000002</v>
       </c>
       <c r="G2">
-        <v>2640.7080000000001</v>
+        <v>2238.3330000000001</v>
       </c>
       <c r="H2">
-        <v>68021.263000000006</v>
+        <v>28949.455999999998</v>
       </c>
       <c r="I2">
-        <v>49805.284</v>
+        <v>20232.672999999999</v>
       </c>
       <c r="J2">
-        <v>7840.1509999999998</v>
+        <v>3414.5160000000001</v>
       </c>
       <c r="K2">
-        <v>1284.261</v>
+        <v>2072.8240000000001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>51161.499000000003</v>
+        <v>22834.455000000002</v>
       </c>
       <c r="O2">
-        <v>59663.567999999999</v>
+        <v>26248.971000000001</v>
       </c>
       <c r="P2">
-        <v>9124.4120000000003</v>
+        <v>5487.34</v>
       </c>
       <c r="Q2">
-        <v>-155.57</v>
+        <v>204.18199999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>12031</v>
+        <v>7616</v>
       </c>
       <c r="T2">
-        <v>8357.6949999999997</v>
+        <v>2700.4850000000001</v>
       </c>
       <c r="U2">
-        <v>737.35299999999995</v>
+        <v>770.62199999999996</v>
       </c>
       <c r="V2">
-        <v>426.24400000000003</v>
+        <v>76.884</v>
       </c>
       <c r="W2">
-        <v>-94.233999999999995</v>
+        <v>-23.241</v>
       </c>
       <c r="X2">
-        <v>-803.51700000000005</v>
+        <v>-228.20599999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1275.347</v>
+        <v>706.73400000000004</v>
       </c>
       <c r="AA2">
-        <v>204.44200000000001</v>
+        <v>71.966999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>206.273</v>
+        <v>83.665999999999997</v>
       </c>
       <c r="D3">
-        <v>808.22400000000005</v>
+        <v>365.20800000000003</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>808.22400000000005</v>
+        <v>365.20800000000003</v>
       </c>
       <c r="G3">
-        <v>2037.261</v>
+        <v>1799.126</v>
       </c>
       <c r="H3">
-        <v>67881.207999999999</v>
+        <v>30924.543000000001</v>
       </c>
       <c r="I3">
-        <v>50548.099000000002</v>
+        <v>20977.683000000001</v>
       </c>
       <c r="J3">
-        <v>7305.42</v>
+        <v>3490.4470000000001</v>
       </c>
       <c r="K3">
-        <v>812.71900000000005</v>
+        <v>2943.9789999999998</v>
       </c>
       <c r="L3">
-        <v>-442.75099999999998</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-528.51099999999997</v>
+        <v>-50.850999999999999</v>
       </c>
       <c r="N3">
-        <v>51456.58</v>
+        <v>24442.038</v>
       </c>
       <c r="O3">
-        <v>59373.69</v>
+        <v>27932.485000000001</v>
       </c>
       <c r="P3">
-        <v>8118.1390000000001</v>
+        <v>6434.4260000000004</v>
       </c>
       <c r="Q3">
-        <v>48.55</v>
+        <v>-70.296000000000006</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>12715</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>8507.518</v>
+        <v>2992.058</v>
       </c>
       <c r="U3">
-        <v>982.30499999999995</v>
+        <v>700.73500000000001</v>
       </c>
       <c r="V3">
-        <v>770.65300000000002</v>
+        <v>52.287999999999997</v>
       </c>
       <c r="W3">
-        <v>-94.774000000000001</v>
+        <v>-24.169</v>
       </c>
       <c r="X3">
-        <v>-309.524</v>
+        <v>222.14699999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>142.084</v>
+        <v>93.271000000000001</v>
       </c>
       <c r="AA3">
-        <v>206.273</v>
+        <v>83.665999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>322.358</v>
+        <v>94.808000000000007</v>
       </c>
       <c r="D4">
-        <v>1038.9280000000001</v>
+        <v>380.98399999999998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1038.9280000000001</v>
+        <v>380.98399999999998</v>
       </c>
       <c r="G4">
-        <v>4984.8109999999997</v>
+        <v>1842.52</v>
       </c>
       <c r="H4">
-        <v>77727.153999999995</v>
+        <v>31202.146000000001</v>
       </c>
       <c r="I4">
-        <v>59229.214999999997</v>
+        <v>20041.440999999999</v>
       </c>
       <c r="J4">
-        <v>7128.9160000000002</v>
+        <v>3727.0430000000001</v>
       </c>
       <c r="K4">
-        <v>940.64800000000002</v>
+        <v>3971.3539999999998</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>60259.044999999998</v>
+        <v>24488.395</v>
       </c>
       <c r="O4">
-        <v>68482.960000000006</v>
+        <v>28215.437999999998</v>
       </c>
       <c r="P4">
-        <v>8069.5640000000003</v>
+        <v>7698.3969999999999</v>
       </c>
       <c r="Q4">
-        <v>350.61</v>
+        <v>46.241</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9244.1939999999995</v>
+        <v>2986.7080000000001</v>
       </c>
       <c r="U4">
-        <v>1332.915</v>
+        <v>747.31299999999999</v>
       </c>
       <c r="V4">
-        <v>92.525000000000006</v>
+        <v>-89.497</v>
       </c>
       <c r="W4">
-        <v>-98.406999999999996</v>
+        <v>-24.263000000000002</v>
       </c>
       <c r="X4">
-        <v>-994.80700000000002</v>
+        <v>236.09299999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>808.21100000000001</v>
+        <v>309.90499999999997</v>
       </c>
       <c r="AA4">
-        <v>322.358</v>
+        <v>94.808000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>183.108</v>
+        <v>97.867000000000004</v>
       </c>
       <c r="D5">
-        <v>927.101</v>
+        <v>386.46199999999999</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>927.101</v>
+        <v>386.46199999999999</v>
       </c>
       <c r="G5">
-        <v>4724.875</v>
+        <v>1870.921</v>
       </c>
       <c r="H5">
-        <v>77863.891000000003</v>
+        <v>31139.058000000001</v>
       </c>
       <c r="I5">
-        <v>59482.389000000003</v>
+        <v>20521.937000000002</v>
       </c>
       <c r="J5">
-        <v>6748.857</v>
+        <v>3615.8449999999998</v>
       </c>
       <c r="K5">
-        <v>1158.201</v>
+        <v>3587.2469999999998</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>60738.726999999999</v>
+        <v>24567.631000000001</v>
       </c>
       <c r="O5">
-        <v>68488.764999999999</v>
+        <v>28183.475999999999</v>
       </c>
       <c r="P5">
-        <v>7907.058</v>
+        <v>7203.0919999999996</v>
       </c>
       <c r="Q5">
-        <v>21.141999999999999</v>
+        <v>44.164000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>15074</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9375.1260000000002</v>
+        <v>2955.5819999999999</v>
       </c>
       <c r="U5">
-        <v>1354.057</v>
+        <v>791.95100000000002</v>
       </c>
       <c r="V5">
-        <v>422.31900000000002</v>
+        <v>212.721</v>
       </c>
       <c r="W5">
-        <v>-93.222999999999999</v>
+        <v>-23.966999999999999</v>
       </c>
       <c r="X5">
-        <v>-175.55099999999999</v>
+        <v>-195.22399999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-208.99600000000001</v>
+        <v>272.80099999999999</v>
       </c>
       <c r="AA5">
-        <v>183.108</v>
+        <v>97.867000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>147.74</v>
+        <v>101.73399999999999</v>
       </c>
       <c r="D6">
-        <v>729.47299999999996</v>
+        <v>399.56</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>729.47299999999996</v>
+        <v>399.56</v>
       </c>
       <c r="G6">
-        <v>3076.2539999999999</v>
+        <v>3126.4810000000002</v>
       </c>
       <c r="H6">
-        <v>77924.286999999997</v>
+        <v>31450.196</v>
       </c>
       <c r="I6">
-        <v>59394.648999999998</v>
+        <v>21580.400000000001</v>
       </c>
       <c r="J6">
-        <v>6386.2349999999997</v>
+        <v>3461.7689999999998</v>
       </c>
       <c r="K6">
-        <v>1222.7670000000001</v>
+        <v>3045.83</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>60985.307000000001</v>
+        <v>25048.975999999999</v>
       </c>
       <c r="O6">
-        <v>68653.077999999994</v>
+        <v>28510.744999999999</v>
       </c>
       <c r="P6">
-        <v>7908.9930000000004</v>
+        <v>6507.5990000000002</v>
       </c>
       <c r="Q6">
-        <v>98.34</v>
+        <v>219.12100000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>14235</v>
+        <v>8139</v>
       </c>
       <c r="T6">
-        <v>9271.2090000000007</v>
+        <v>2939.451</v>
       </c>
       <c r="U6">
-        <v>1069.9079999999999</v>
+        <v>1011.091</v>
       </c>
       <c r="V6">
-        <v>486.74900000000002</v>
+        <v>-21.21</v>
       </c>
       <c r="W6">
-        <v>-111.928</v>
+        <v>-23.472999999999999</v>
       </c>
       <c r="X6">
-        <v>-142.654</v>
+        <v>267.00099999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1522.6289999999999</v>
+        <v>97.123000000000005</v>
       </c>
       <c r="AA6">
-        <v>147.74</v>
+        <v>101.73399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>206.46299999999999</v>
+        <v>113.577</v>
       </c>
       <c r="D7">
-        <v>948.11199999999997</v>
+        <v>401.28800000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>948.11199999999997</v>
+        <v>401.28800000000001</v>
       </c>
       <c r="G7">
-        <v>3683.759</v>
+        <v>2221.2719999999999</v>
       </c>
       <c r="H7">
-        <v>79186.887000000002</v>
+        <v>31295.974999999999</v>
       </c>
       <c r="I7">
-        <v>60912.942999999999</v>
+        <v>21624.095000000001</v>
       </c>
       <c r="J7">
-        <v>6476.5259999999998</v>
+        <v>4109.1580000000004</v>
       </c>
       <c r="K7">
-        <v>917.79600000000005</v>
+        <v>2142.87</v>
       </c>
       <c r="L7">
-        <v>-270.08100000000002</v>
+        <v>-902.87</v>
       </c>
       <c r="M7">
-        <v>-202.352</v>
+        <v>-51.786000000000001</v>
       </c>
       <c r="N7">
-        <v>61921.603000000003</v>
+        <v>24239.458999999999</v>
       </c>
       <c r="O7">
-        <v>69758.198999999993</v>
+        <v>28348.616999999998</v>
       </c>
       <c r="P7">
-        <v>7394.3220000000001</v>
+        <v>6252.0280000000002</v>
       </c>
       <c r="Q7">
-        <v>-108.30500000000001</v>
+        <v>9.1440000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>14864</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>9428.6880000000001</v>
+        <v>2947.3580000000002</v>
       </c>
       <c r="U7">
-        <v>1344.0920000000001</v>
+        <v>1020.949</v>
       </c>
       <c r="V7">
-        <v>539.01199999999994</v>
+        <v>409.2</v>
       </c>
       <c r="W7">
-        <v>-93.81</v>
+        <v>-23.231000000000002</v>
       </c>
       <c r="X7">
-        <v>1036.537</v>
+        <v>-313.745</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-630.26800000000003</v>
+        <v>144.21199999999999</v>
       </c>
       <c r="AA7">
-        <v>206.46299999999999</v>
+        <v>113.577</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>233.38</v>
+        <v>114.50700000000001</v>
       </c>
       <c r="D8">
-        <v>979.63300000000004</v>
+        <v>402.65499999999997</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>979.63300000000004</v>
+        <v>402.65499999999997</v>
       </c>
       <c r="G8">
-        <v>3559.0720000000001</v>
+        <v>2069.3020000000001</v>
       </c>
       <c r="H8">
-        <v>80807.577999999994</v>
+        <v>31685.530999999999</v>
       </c>
       <c r="I8">
-        <v>62548.807000000001</v>
+        <v>21857.572</v>
       </c>
       <c r="J8">
-        <v>5687.8680000000004</v>
+        <v>4211.92</v>
       </c>
       <c r="K8">
-        <v>1420.0309999999999</v>
+        <v>2244.2719999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>64036.360999999997</v>
+        <v>24496.725999999999</v>
       </c>
       <c r="O8">
-        <v>71177.671000000002</v>
+        <v>28708.646000000001</v>
       </c>
       <c r="P8">
-        <v>7107.8990000000003</v>
+        <v>6456.192</v>
       </c>
       <c r="Q8">
-        <v>78.739000000000004</v>
+        <v>-107.47499999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>14629</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>9629.9069999999992</v>
+        <v>2976.8850000000002</v>
       </c>
       <c r="U8">
-        <v>1422.8309999999999</v>
+        <v>914.10400000000004</v>
       </c>
       <c r="V8">
-        <v>105.616</v>
+        <v>257.37599999999998</v>
       </c>
       <c r="W8">
-        <v>-112.361</v>
+        <v>-23.105</v>
       </c>
       <c r="X8">
-        <v>1345.3720000000001</v>
+        <v>318.346</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>400.81099999999998</v>
+        <v>-66.085999999999999</v>
       </c>
       <c r="AA8">
-        <v>233.38</v>
+        <v>114.50700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>293.46199999999999</v>
+        <v>110.117</v>
       </c>
       <c r="D9">
-        <v>1062.4549999999999</v>
+        <v>406.53699999999998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1062.4549999999999</v>
+        <v>406.53699999999998</v>
       </c>
       <c r="G9">
-        <v>3144.5010000000002</v>
+        <v>2623.748</v>
       </c>
       <c r="H9">
-        <v>81085.232999999993</v>
+        <v>34148.49</v>
       </c>
       <c r="I9">
-        <v>64007.258000000002</v>
+        <v>22540.170999999998</v>
       </c>
       <c r="J9">
-        <v>4969.5360000000001</v>
+        <v>4314.3590000000004</v>
       </c>
       <c r="K9">
-        <v>1056.2639999999999</v>
+        <v>3810.741</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>65142.112999999998</v>
+        <v>26775.579000000002</v>
       </c>
       <c r="O9">
-        <v>71139.706000000006</v>
+        <v>31089.937999999998</v>
       </c>
       <c r="P9">
-        <v>6025.8</v>
+        <v>8125.1</v>
       </c>
       <c r="Q9">
-        <v>200.09700000000001</v>
+        <v>527.29100000000005</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>14434</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>9945.527</v>
+        <v>3058.5520000000001</v>
       </c>
       <c r="U9">
-        <v>1622.9280000000001</v>
+        <v>1442.2070000000001</v>
       </c>
       <c r="V9">
-        <v>-170.852</v>
+        <v>-143.80000000000001</v>
       </c>
       <c r="W9">
-        <v>-92.804000000000002</v>
+        <v>-22.931999999999999</v>
       </c>
       <c r="X9">
-        <v>41.268000000000001</v>
+        <v>2309.0619999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1147.2080000000001</v>
+        <v>-1207.789</v>
       </c>
       <c r="AA9">
-        <v>293.46199999999999</v>
+        <v>110.117</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>296.19299999999998</v>
+        <v>118.551</v>
       </c>
       <c r="D10">
-        <v>1071.586</v>
+        <v>427.036</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1071.586</v>
+        <v>427.036</v>
       </c>
       <c r="G10">
-        <v>4527.0330000000004</v>
+        <v>3496.8139999999999</v>
       </c>
       <c r="H10">
-        <v>83008.803</v>
+        <v>33201.180999999997</v>
       </c>
       <c r="I10">
-        <v>65611.252999999997</v>
+        <v>21664.922999999999</v>
       </c>
       <c r="J10">
-        <v>4356.46</v>
+        <v>4497.3739999999998</v>
       </c>
       <c r="K10">
-        <v>1459.348</v>
+        <v>3429.4140000000002</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>67376.179999999993</v>
+        <v>25495.328000000001</v>
       </c>
       <c r="O10">
-        <v>72806.210000000006</v>
+        <v>29992.702000000001</v>
       </c>
       <c r="P10">
-        <v>6067.1059999999998</v>
+        <v>7926.7879999999996</v>
       </c>
       <c r="Q10">
-        <v>363.68700000000001</v>
+        <v>-151.57900000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>13640</v>
+        <v>8044</v>
       </c>
       <c r="T10">
-        <v>10202.593000000001</v>
+        <v>3208.4789999999998</v>
       </c>
       <c r="U10">
-        <v>1381.826</v>
+        <v>1284.1310000000001</v>
       </c>
       <c r="V10">
-        <v>26.204999999999998</v>
+        <v>115.64400000000001</v>
       </c>
       <c r="W10">
-        <v>-112.19199999999999</v>
+        <v>-27.59</v>
       </c>
       <c r="X10">
-        <v>1671.9179999999999</v>
+        <v>-1091.4880000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>822.28300000000002</v>
+        <v>1225.6420000000001</v>
       </c>
       <c r="AA10">
-        <v>296.19299999999998</v>
+        <v>118.551</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>274.113</v>
+        <v>116.538</v>
       </c>
       <c r="D11">
-        <v>1050.932</v>
+        <v>415.81400000000002</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1050.932</v>
+        <v>415.81400000000002</v>
       </c>
       <c r="G11">
-        <v>4065.5990000000002</v>
+        <v>2081.326</v>
       </c>
       <c r="H11">
-        <v>82811.956999999995</v>
+        <v>33443.790999999997</v>
       </c>
       <c r="I11">
-        <v>65089.726000000002</v>
+        <v>21924.222000000002</v>
       </c>
       <c r="J11">
-        <v>5394.5630000000001</v>
+        <v>5394.92</v>
       </c>
       <c r="K11">
-        <v>711.73500000000001</v>
+        <v>2387.0430000000001</v>
       </c>
       <c r="L11">
-        <v>-699.88900000000001</v>
+        <v>-1042.3699999999999</v>
       </c>
       <c r="M11">
-        <v>-3.46</v>
+        <v>-101.76</v>
       </c>
       <c r="N11">
-        <v>65873.52</v>
+        <v>24736.151999999998</v>
       </c>
       <c r="O11">
-        <v>72389</v>
+        <v>30131.072</v>
       </c>
       <c r="P11">
-        <v>6106.2979999999998</v>
+        <v>7781.9629999999997</v>
       </c>
       <c r="Q11">
-        <v>-160.548</v>
+        <v>-441.23899999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>14576</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>10422.957</v>
+        <v>3312.7190000000001</v>
       </c>
       <c r="U11">
-        <v>1826.067</v>
+        <v>851.69</v>
       </c>
       <c r="V11">
-        <v>698.39800000000002</v>
+        <v>374.13200000000001</v>
       </c>
       <c r="W11">
-        <v>-95.557000000000002</v>
+        <v>-27.701000000000001</v>
       </c>
       <c r="X11">
-        <v>-487.173</v>
+        <v>83.483000000000004</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-761.20500000000004</v>
+        <v>-201.233</v>
       </c>
       <c r="AA11">
-        <v>274.113</v>
+        <v>116.538</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>348.46600000000001</v>
+        <v>134.04</v>
       </c>
       <c r="D12">
-        <v>1129.2760000000001</v>
+        <v>627.78700000000003</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1129.2760000000001</v>
+        <v>627.78700000000003</v>
       </c>
       <c r="G12">
-        <v>4933.8410000000003</v>
+        <v>4453.933</v>
       </c>
       <c r="H12">
-        <v>83229.005000000005</v>
+        <v>50399.127999999997</v>
       </c>
       <c r="I12">
-        <v>65661.47</v>
+        <v>32538.773000000001</v>
       </c>
       <c r="J12">
-        <v>5122.3980000000001</v>
+        <v>6758.7809999999999</v>
       </c>
       <c r="K12">
-        <v>608.88599999999997</v>
+        <v>4631.3459999999995</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>66323.313999999998</v>
+        <v>38206.910000000003</v>
       </c>
       <c r="O12">
-        <v>72512.675000000003</v>
+        <v>44965.690999999999</v>
       </c>
       <c r="P12">
-        <v>5731.2839999999997</v>
+        <v>11390.127</v>
       </c>
       <c r="Q12">
-        <v>-351.565</v>
+        <v>1734.5150000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>14885</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>10716.33</v>
+        <v>5433.4369999999999</v>
       </c>
       <c r="U12">
-        <v>1474.502</v>
+        <v>2588.232</v>
       </c>
       <c r="V12">
-        <v>-81.902000000000001</v>
+        <v>59.731999999999999</v>
       </c>
       <c r="W12">
-        <v>-113.01</v>
+        <v>-35.786999999999999</v>
       </c>
       <c r="X12">
-        <v>150.066</v>
+        <v>429.25200000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>156.857</v>
+        <v>-468.58699999999999</v>
       </c>
       <c r="AA12">
-        <v>348.46600000000001</v>
+        <v>134.04</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>294.47899999999998</v>
+        <v>156.46299999999999</v>
       </c>
       <c r="D13">
-        <v>1102.4960000000001</v>
+        <v>628.19200000000001</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1102.4960000000001</v>
+        <v>628.19200000000001</v>
       </c>
       <c r="G13">
-        <v>5640.97</v>
+        <v>4189.7129999999997</v>
       </c>
       <c r="H13">
-        <v>84427.485000000001</v>
+        <v>50258.839</v>
       </c>
       <c r="I13">
-        <v>66552.141000000003</v>
+        <v>32414.355</v>
       </c>
       <c r="J13">
-        <v>5121.326</v>
+        <v>6199.3919999999998</v>
       </c>
       <c r="K13">
-        <v>531.678</v>
+        <v>4903.2489999999998</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>67146.592000000004</v>
+        <v>38487.555</v>
       </c>
       <c r="O13">
-        <v>73411.282999999996</v>
+        <v>44686.947</v>
       </c>
       <c r="P13">
-        <v>5653.0039999999999</v>
+        <v>11102.641</v>
       </c>
       <c r="Q13">
-        <v>585.25099999999998</v>
+        <v>-296.43700000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>15409</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>11016.201999999999</v>
+        <v>5571.8919999999998</v>
       </c>
       <c r="U13">
-        <v>2059.7530000000002</v>
+        <v>2295.5859999999998</v>
       </c>
       <c r="V13">
-        <v>-112.819</v>
+        <v>473.61500000000001</v>
       </c>
       <c r="W13">
-        <v>-96.444999999999993</v>
+        <v>-35.914999999999999</v>
       </c>
       <c r="X13">
-        <v>468.702</v>
+        <v>-405.09399999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-629.66600000000005</v>
+        <v>-49.343000000000004</v>
       </c>
       <c r="AA13">
-        <v>294.47899999999998</v>
+        <v>156.46299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>221.422</v>
+        <v>166.90100000000001</v>
       </c>
       <c r="D14">
-        <v>1070.73</v>
+        <v>627.05700000000002</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1070.73</v>
+        <v>627.05700000000002</v>
       </c>
       <c r="G14">
-        <v>4582.2039999999997</v>
+        <v>4436.3559999999998</v>
       </c>
       <c r="H14">
-        <v>85162.391000000003</v>
+        <v>49826.080999999998</v>
       </c>
       <c r="I14">
-        <v>67118.611999999994</v>
+        <v>33114.944000000003</v>
       </c>
       <c r="J14">
-        <v>5108.87</v>
+        <v>5461.01</v>
       </c>
       <c r="K14">
-        <v>514.64400000000001</v>
+        <v>4442.2460000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>67676.675000000003</v>
+        <v>38647.860999999997</v>
       </c>
       <c r="O14">
-        <v>73856.858999999997</v>
+        <v>44108.870999999999</v>
       </c>
       <c r="P14">
-        <v>5623.5140000000001</v>
+        <v>9977.6710000000003</v>
       </c>
       <c r="Q14">
-        <v>-386.81900000000002</v>
+        <v>-381.18799999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>14629</v>
+        <v>12426</v>
       </c>
       <c r="T14">
-        <v>11305.531999999999</v>
+        <v>5717.21</v>
       </c>
       <c r="U14">
-        <v>1077.3409999999999</v>
+        <v>1899.7819999999999</v>
       </c>
       <c r="V14">
-        <v>428.64699999999999</v>
+        <v>308.13600000000002</v>
       </c>
       <c r="W14">
-        <v>-113.78700000000001</v>
+        <v>-36.020000000000003</v>
       </c>
       <c r="X14">
-        <v>825.97799999999995</v>
+        <v>-429.07799999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-53.904000000000003</v>
+        <v>-161.34800000000001</v>
       </c>
       <c r="AA14">
-        <v>221.422</v>
+        <v>166.90100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>229.017</v>
+        <v>159.49</v>
       </c>
       <c r="D15">
-        <v>1044.54</v>
+        <v>627.45399999999995</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1044.54</v>
+        <v>627.45399999999995</v>
       </c>
       <c r="G15">
-        <v>6121.23</v>
+        <v>3765.337</v>
       </c>
       <c r="H15">
-        <v>88530.36</v>
+        <v>50832.480000000003</v>
       </c>
       <c r="I15">
-        <v>68699.365999999995</v>
+        <v>33340.879999999997</v>
       </c>
       <c r="J15">
-        <v>6251.1970000000001</v>
+        <v>5747.951</v>
       </c>
       <c r="K15">
-        <v>450.91899999999998</v>
+        <v>4955.6149999999998</v>
       </c>
       <c r="L15">
-        <v>-30.245999999999999</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-352.245</v>
+        <v>-100.76600000000001</v>
       </c>
       <c r="N15">
-        <v>69209.97</v>
+        <v>39350.387999999999</v>
       </c>
       <c r="O15">
-        <v>76643.497000000003</v>
+        <v>45098.339</v>
       </c>
       <c r="P15">
-        <v>6702.116</v>
+        <v>10703.566000000001</v>
       </c>
       <c r="Q15">
-        <v>90.183999999999997</v>
+        <v>18.193999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>15316</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>11886.862999999999</v>
+        <v>5734.1409999999996</v>
       </c>
       <c r="U15">
-        <v>1763.1179999999999</v>
+        <v>1917.9760000000001</v>
       </c>
       <c r="V15">
-        <v>561.09799999999996</v>
+        <v>279.096</v>
       </c>
       <c r="W15">
-        <v>-98.486000000000004</v>
+        <v>-47.643999999999998</v>
       </c>
       <c r="X15">
-        <v>2970.1239999999998</v>
+        <v>790.37599999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-3102.6149999999998</v>
+        <v>-339.34</v>
       </c>
       <c r="AA15">
-        <v>229.017</v>
+        <v>159.49</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>284.33600000000001</v>
+        <v>184.38499999999999</v>
       </c>
       <c r="D16">
-        <v>1095.5260000000001</v>
+        <v>636.13</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1095.5260000000001</v>
+        <v>636.13</v>
       </c>
       <c r="G16">
-        <v>6288.299</v>
+        <v>3552.5819999999999</v>
       </c>
       <c r="H16">
-        <v>90835.001999999993</v>
+        <v>52094.457999999999</v>
       </c>
       <c r="I16">
-        <v>69829.255000000005</v>
+        <v>34953.510999999999</v>
       </c>
       <c r="J16">
-        <v>7391.9309999999996</v>
+        <v>5827.18</v>
       </c>
       <c r="K16">
-        <v>378.447</v>
+        <v>4862.3620000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>70262.096000000005</v>
+        <v>40610.591999999997</v>
       </c>
       <c r="O16">
-        <v>78666.247000000003</v>
+        <v>46437.771999999997</v>
       </c>
       <c r="P16">
-        <v>7770.3779999999997</v>
+        <v>10689.541999999999</v>
       </c>
       <c r="Q16">
-        <v>154.31800000000001</v>
+        <v>-212.45699999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>15387</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>12168.754999999999</v>
+        <v>5656.6859999999997</v>
       </c>
       <c r="U16">
-        <v>1917.4359999999999</v>
+        <v>1705.519</v>
       </c>
       <c r="V16">
-        <v>-91.593999999999994</v>
+        <v>187.39599999999999</v>
       </c>
       <c r="W16">
-        <v>-115.996</v>
+        <v>-47.087000000000003</v>
       </c>
       <c r="X16">
-        <v>2117.81</v>
+        <v>1384.7080000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1365.057</v>
+        <v>-618.41300000000001</v>
       </c>
       <c r="AA16">
-        <v>284.33600000000001</v>
+        <v>184.38499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>275.34399999999999</v>
+        <v>186.441</v>
       </c>
       <c r="D17">
-        <v>1091.17</v>
+        <v>667.20600000000002</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1091.17</v>
+        <v>667.20600000000002</v>
       </c>
       <c r="G17">
-        <v>10528.85</v>
+        <v>4442.67</v>
       </c>
       <c r="H17">
-        <v>97228.342000000004</v>
+        <v>52886.9</v>
       </c>
       <c r="I17">
-        <v>74341.501999999993</v>
+        <v>34975.699000000001</v>
       </c>
       <c r="J17">
-        <v>9061.3909999999996</v>
+        <v>5715.5079999999998</v>
       </c>
       <c r="K17">
-        <v>352.18599999999998</v>
+        <v>5650.5330000000004</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>74767.966</v>
+        <v>41461.091999999997</v>
       </c>
       <c r="O17">
-        <v>84895.025999999998</v>
+        <v>47176.6</v>
       </c>
       <c r="P17">
-        <v>9413.5769999999993</v>
+        <v>11366.040999999999</v>
       </c>
       <c r="Q17">
-        <v>-393.79300000000001</v>
+        <v>54.55</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>15260</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>12333.316000000001</v>
+        <v>5710.3</v>
       </c>
       <c r="U17">
-        <v>1523.643</v>
+        <v>1760.069</v>
       </c>
       <c r="V17">
-        <v>305.00599999999997</v>
+        <v>91.412999999999997</v>
       </c>
       <c r="W17">
-        <v>-110.602</v>
+        <v>-46.645000000000003</v>
       </c>
       <c r="X17">
-        <v>6117.7330000000002</v>
+        <v>531.20399999999995</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-5888.7809999999999</v>
+        <v>-238.57300000000001</v>
       </c>
       <c r="AA17">
-        <v>275.34399999999999</v>
+        <v>186.441</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>277.54899999999998</v>
+        <v>192.20500000000001</v>
       </c>
       <c r="D18">
-        <v>1100.4829999999999</v>
+        <v>651.75099999999998</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1100.4829999999999</v>
+        <v>651.75099999999998</v>
       </c>
       <c r="G18">
-        <v>9278.5110000000004</v>
+        <v>3890.35</v>
       </c>
       <c r="H18">
-        <v>96685.535000000003</v>
+        <v>52938.720999999998</v>
       </c>
       <c r="I18">
-        <v>73582.053</v>
+        <v>35429.472999999998</v>
       </c>
       <c r="J18">
-        <v>9006.9590000000007</v>
+        <v>6348.5590000000002</v>
       </c>
       <c r="K18">
-        <v>404.73500000000001</v>
+        <v>4703.6639999999998</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>74050.16</v>
+        <v>40860.548000000003</v>
       </c>
       <c r="O18">
-        <v>84349.638999999996</v>
+        <v>47209.107000000004</v>
       </c>
       <c r="P18">
-        <v>9411.6939999999995</v>
+        <v>11052.223</v>
       </c>
       <c r="Q18">
-        <v>-150.286</v>
+        <v>-396.26499999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>14609</v>
+        <v>11785</v>
       </c>
       <c r="T18">
-        <v>12335.896000000001</v>
+        <v>5729.6139999999996</v>
       </c>
       <c r="U18">
-        <v>817.78200000000004</v>
+        <v>1363.8040000000001</v>
       </c>
       <c r="V18">
-        <v>324.53100000000001</v>
+        <v>166.465</v>
       </c>
       <c r="W18">
-        <v>-116.349</v>
+        <v>-46.292999999999999</v>
       </c>
       <c r="X18">
-        <v>-893.91399999999999</v>
+        <v>-8.6340000000000003</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1605.5630000000001</v>
+        <v>-72.846999999999994</v>
       </c>
       <c r="AA18">
-        <v>277.54899999999998</v>
+        <v>192.20500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>241.613</v>
+        <v>189.29</v>
       </c>
       <c r="D19">
-        <v>1061.7909999999999</v>
+        <v>652.31299999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1061.7909999999999</v>
+        <v>652.31299999999999</v>
       </c>
       <c r="G19">
-        <v>8969.4689999999991</v>
+        <v>3356.8879999999999</v>
       </c>
       <c r="H19">
-        <v>98377.782999999996</v>
+        <v>53887.218000000001</v>
       </c>
       <c r="I19">
-        <v>73594.12</v>
+        <v>36293.406999999999</v>
       </c>
       <c r="J19">
-        <v>10509.143</v>
+        <v>6282.3860000000004</v>
       </c>
       <c r="K19">
-        <v>445.80900000000003</v>
+        <v>4881.5959999999995</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.7969999999999999</v>
+        <v>-450.81299999999999</v>
       </c>
       <c r="N19">
-        <v>74117.831999999995</v>
+        <v>41931.226999999999</v>
       </c>
       <c r="O19">
-        <v>85849.482000000004</v>
+        <v>48213.612999999998</v>
       </c>
       <c r="P19">
-        <v>10954.951999999999</v>
+        <v>11163.982</v>
       </c>
       <c r="Q19">
-        <v>-6.5039999999999996</v>
+        <v>7.306</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>15263</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>12528.300999999999</v>
+        <v>5673.6049999999996</v>
       </c>
       <c r="U19">
-        <v>1366.8530000000001</v>
+        <v>1371.11</v>
       </c>
       <c r="V19">
-        <v>458.36599999999999</v>
+        <v>314.31099999999998</v>
       </c>
       <c r="W19">
-        <v>-110.999</v>
+        <v>-45.743000000000002</v>
       </c>
       <c r="X19">
-        <v>1337.4659999999999</v>
+        <v>781.11</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-1180.723</v>
+        <v>-275.72399999999999</v>
       </c>
       <c r="AA19">
-        <v>241.613</v>
+        <v>189.29</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>286.68799999999999</v>
+        <v>196.834</v>
       </c>
       <c r="D20">
-        <v>1150.155</v>
+        <v>673.86400000000003</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1150.155</v>
+        <v>673.86400000000003</v>
       </c>
       <c r="G20">
-        <v>6855.63</v>
+        <v>3503.49</v>
       </c>
       <c r="H20">
-        <v>97080.076000000001</v>
+        <v>54481.946000000004</v>
       </c>
       <c r="I20">
-        <v>72629.619000000006</v>
+        <v>37305.832000000002</v>
       </c>
       <c r="J20">
-        <v>10175.912</v>
+        <v>6317.9610000000002</v>
       </c>
       <c r="K20">
-        <v>329.86900000000003</v>
+        <v>4284.93</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>73031.55</v>
+        <v>42326.262000000002</v>
       </c>
       <c r="O20">
-        <v>84412.078999999998</v>
+        <v>48644.222999999998</v>
       </c>
       <c r="P20">
-        <v>10505.781000000001</v>
+        <v>10602.891</v>
       </c>
       <c r="Q20">
-        <v>-15.994999999999999</v>
+        <v>106.955</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>15380</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>12667.996999999999</v>
+        <v>5837.723</v>
       </c>
       <c r="U20">
-        <v>1350.8579999999999</v>
+        <v>1478.0650000000001</v>
       </c>
       <c r="V20">
-        <v>99.716999999999999</v>
+        <v>-303.53300000000002</v>
       </c>
       <c r="W20">
-        <v>-116.914</v>
+        <v>-51.258000000000003</v>
       </c>
       <c r="X20">
-        <v>-1363.4670000000001</v>
+        <v>373.08499999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1781.0719999999999</v>
+        <v>399.35199999999998</v>
       </c>
       <c r="AA20">
-        <v>286.68799999999999</v>
+        <v>196.834</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>280.40100000000001</v>
+        <v>191.07400000000001</v>
       </c>
       <c r="D21">
-        <v>1088.5260000000001</v>
+        <v>654.67200000000003</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1088.5260000000001</v>
+        <v>654.67200000000003</v>
       </c>
       <c r="G21">
-        <v>7185.2979999999998</v>
+        <v>3548.5349999999999</v>
       </c>
       <c r="H21">
-        <v>97797.062000000005</v>
+        <v>54841.349000000002</v>
       </c>
       <c r="I21">
-        <v>72944.543000000005</v>
+        <v>37199.014999999999</v>
       </c>
       <c r="J21">
-        <v>10174.289000000001</v>
+        <v>6854.6629999999996</v>
       </c>
       <c r="K21">
-        <v>416.27800000000002</v>
+        <v>4198.2060000000001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>73434.296000000002</v>
+        <v>42139.663</v>
       </c>
       <c r="O21">
-        <v>84875.127999999997</v>
+        <v>48994.326000000001</v>
       </c>
       <c r="P21">
-        <v>10590.566999999999</v>
+        <v>11052.869000000001</v>
       </c>
       <c r="Q21">
-        <v>-101.154</v>
+        <v>-55.585000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>15456</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>12921.933999999999</v>
+        <v>5847.0230000000001</v>
       </c>
       <c r="U21">
-        <v>1249.704</v>
+        <v>1422.48</v>
       </c>
       <c r="V21">
-        <v>689.75699999999995</v>
+        <v>-417.91399999999999</v>
       </c>
       <c r="W21">
-        <v>-111.239</v>
+        <v>-50.98</v>
       </c>
       <c r="X21">
-        <v>247.578</v>
+        <v>171.369</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-328.26600000000002</v>
+        <v>31.509</v>
       </c>
       <c r="AA21">
-        <v>280.40100000000001</v>
+        <v>191.07400000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>270.96499999999997</v>
+        <v>204.98500000000001</v>
       </c>
       <c r="D22">
-        <v>1218.152</v>
+        <v>675.21199999999999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1218.152</v>
+        <v>675.21199999999999</v>
       </c>
       <c r="G22">
-        <v>10186.305</v>
+        <v>4742.3710000000001</v>
       </c>
       <c r="H22">
-        <v>122787.88400000001</v>
+        <v>55146.406000000003</v>
       </c>
       <c r="I22">
-        <v>91957.841</v>
+        <v>37100.173999999999</v>
       </c>
       <c r="J22">
-        <v>10353.858</v>
+        <v>6196.9939999999997</v>
       </c>
       <c r="K22">
-        <v>2294.8319999999999</v>
+        <v>5152.8720000000003</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>94637.817999999999</v>
+        <v>43073.025999999998</v>
       </c>
       <c r="O22">
-        <v>106614.595</v>
+        <v>49270.02</v>
       </c>
       <c r="P22">
-        <v>12948.69</v>
+        <v>11349.866</v>
       </c>
       <c r="Q22">
-        <v>118.336</v>
+        <v>67.978999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>16331</v>
+        <v>11952</v>
       </c>
       <c r="T22">
-        <v>16173.289000000001</v>
+        <v>5876.3860000000004</v>
       </c>
       <c r="U22">
-        <v>703.45399999999995</v>
+        <v>1490.4590000000001</v>
       </c>
       <c r="V22">
-        <v>494.56799999999998</v>
+        <v>705.50800000000004</v>
       </c>
       <c r="W22">
-        <v>-117.13500000000001</v>
+        <v>-50.637999999999998</v>
       </c>
       <c r="X22">
-        <v>-9683.5840000000007</v>
+        <v>78.944999999999993</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>11324.328</v>
+        <v>-71.292000000000002</v>
       </c>
       <c r="AA22">
-        <v>270.96499999999997</v>
+        <v>204.98500000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>298.52800000000002</v>
+        <v>202.917</v>
       </c>
       <c r="D23">
-        <v>1243.8969999999999</v>
+        <v>681.95699999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1243.8969999999999</v>
+        <v>681.95699999999999</v>
       </c>
       <c r="G23">
-        <v>12153.861000000001</v>
+        <v>3557.3530000000001</v>
       </c>
       <c r="H23">
-        <v>124625.632</v>
+        <v>55419.862000000001</v>
       </c>
       <c r="I23">
-        <v>94214.576000000001</v>
+        <v>38171.385000000002</v>
       </c>
       <c r="J23">
-        <v>10341.035</v>
+        <v>6092.57</v>
       </c>
       <c r="K23">
-        <v>2068.395</v>
+        <v>4351.3469999999998</v>
       </c>
       <c r="L23">
-        <v>-343.83800000000002</v>
+        <v>-801.52499999999998</v>
       </c>
       <c r="M23">
-        <v>-317.18700000000001</v>
+        <v>-600.89599999999996</v>
       </c>
       <c r="N23">
-        <v>96363.576000000001</v>
+        <v>43407.822999999997</v>
       </c>
       <c r="O23">
-        <v>108270.579</v>
+        <v>49500.392999999996</v>
       </c>
       <c r="P23">
-        <v>12409.43</v>
+        <v>10443.916999999999</v>
       </c>
       <c r="Q23">
-        <v>-189.86500000000001</v>
+        <v>-203.98</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>16718</v>
+        <v>12837</v>
       </c>
       <c r="T23">
-        <v>16355.053</v>
+        <v>5919.4690000000001</v>
       </c>
       <c r="U23">
-        <v>1178.175</v>
+        <v>1286.479</v>
       </c>
       <c r="V23">
-        <v>448.22</v>
+        <v>107.965</v>
       </c>
       <c r="W23">
-        <v>-129.36799999999999</v>
+        <v>-50.075000000000003</v>
       </c>
       <c r="X23">
-        <v>1377.19</v>
+        <v>19.484999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1604.7760000000001</v>
+        <v>55.45</v>
       </c>
       <c r="AA23">
-        <v>298.52800000000002</v>
+        <v>202.917</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>336.03100000000001</v>
+        <v>212.57300000000001</v>
       </c>
       <c r="D24">
-        <v>1280.0730000000001</v>
+        <v>692.21500000000003</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1280.0730000000001</v>
+        <v>692.21500000000003</v>
       </c>
       <c r="G24">
-        <v>11394.485000000001</v>
+        <v>4115.7669999999998</v>
       </c>
       <c r="H24">
-        <v>123820.584</v>
+        <v>56507.088000000003</v>
       </c>
       <c r="I24">
-        <v>94650.103000000003</v>
+        <v>38513.682999999997</v>
       </c>
       <c r="J24">
-        <v>10328.751</v>
+        <v>5734.509</v>
       </c>
       <c r="K24">
-        <v>775.97699999999998</v>
+        <v>5304.8140000000003</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>95506.244999999995</v>
+        <v>44772.355000000003</v>
       </c>
       <c r="O24">
-        <v>107349.07</v>
+        <v>50506.864000000001</v>
       </c>
       <c r="P24">
-        <v>11104.727999999999</v>
+        <v>11039.323</v>
       </c>
       <c r="Q24">
-        <v>106.267</v>
+        <v>303.03300000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>16814</v>
+        <v>12932</v>
       </c>
       <c r="T24">
-        <v>16471.513999999999</v>
+        <v>6000.2240000000002</v>
       </c>
       <c r="U24">
-        <v>1284.442</v>
+        <v>1589.5119999999999</v>
       </c>
       <c r="V24">
-        <v>201.81100000000001</v>
+        <v>120.233</v>
       </c>
       <c r="W24">
-        <v>-134.446</v>
+        <v>-66.650000000000006</v>
       </c>
       <c r="X24">
-        <v>-1203.721</v>
+        <v>-138.869</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1643.9849999999999</v>
+        <v>346.07</v>
       </c>
       <c r="AA24">
-        <v>336.03100000000001</v>
+        <v>212.57300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>349.98399999999998</v>
+        <v>210.37</v>
       </c>
       <c r="D25">
-        <v>1302.69</v>
+        <v>714.08600000000001</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1302.69</v>
+        <v>714.08600000000001</v>
       </c>
       <c r="G25">
-        <v>13826.64</v>
+        <v>3782.9609999999998</v>
       </c>
       <c r="H25">
-        <v>126841.02800000001</v>
+        <v>56373.476000000002</v>
       </c>
       <c r="I25">
-        <v>98136.845000000001</v>
+        <v>39078.788999999997</v>
       </c>
       <c r="J25">
-        <v>10211.16</v>
+        <v>5723.4880000000003</v>
       </c>
       <c r="K25">
-        <v>518.99300000000005</v>
+        <v>4418.3559999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>98732.067999999999</v>
+        <v>44498.745000000003</v>
       </c>
       <c r="O25">
-        <v>110500.052</v>
+        <v>50222.233</v>
       </c>
       <c r="P25">
-        <v>10730.153</v>
+        <v>10141.843999999999</v>
       </c>
       <c r="Q25">
-        <v>47.76</v>
+        <v>-229.53</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>16709</v>
+        <v>12815</v>
       </c>
       <c r="T25">
-        <v>16340.976000000001</v>
+        <v>6151.2430000000004</v>
       </c>
       <c r="U25">
-        <v>1332.202</v>
+        <v>1459.982</v>
       </c>
       <c r="V25">
-        <v>422.05900000000003</v>
+        <v>702.73599999999999</v>
       </c>
       <c r="W25">
-        <v>-127.23099999999999</v>
+        <v>-66.602999999999994</v>
       </c>
       <c r="X25">
-        <v>2716.8009999999999</v>
+        <v>-549.13199999999995</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-2083.8110000000001</v>
+        <v>275.11500000000001</v>
       </c>
       <c r="AA25">
-        <v>349.98399999999998</v>
+        <v>210.37</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>330.57100000000003</v>
+        <v>213.32900000000001</v>
       </c>
       <c r="D26">
-        <v>1279.223</v>
+        <v>682.13499999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1279.223</v>
+        <v>682.13499999999999</v>
       </c>
       <c r="G26">
-        <v>8208.4159999999993</v>
+        <v>5748.4049999999997</v>
       </c>
       <c r="H26">
-        <v>123449.20600000001</v>
+        <v>57064.904999999999</v>
       </c>
       <c r="I26">
-        <v>95493.876000000004</v>
+        <v>39910.502999999997</v>
       </c>
       <c r="J26">
-        <v>7284.3639999999996</v>
+        <v>6890.741</v>
       </c>
       <c r="K26">
-        <v>340.29899999999998</v>
+        <v>3094.2139999999999</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>98118.817999999999</v>
+        <v>43844.069000000003</v>
       </c>
       <c r="O26">
-        <v>106962.584</v>
+        <v>50783.81</v>
       </c>
       <c r="P26">
-        <v>9834.134</v>
+        <v>9984.9549999999999</v>
       </c>
       <c r="Q26">
-        <v>-11.653</v>
+        <v>264.98200000000003</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>16000</v>
+        <v>11904</v>
       </c>
       <c r="T26">
-        <v>16486.621999999999</v>
+        <v>6281.0950000000003</v>
       </c>
       <c r="U26">
-        <v>725.71799999999996</v>
+        <v>1624.9639999999999</v>
       </c>
       <c r="V26">
-        <v>111.321</v>
+        <v>-391.07100000000003</v>
       </c>
       <c r="W26">
-        <v>-132.11600000000001</v>
+        <v>-66.489000000000004</v>
       </c>
       <c r="X26">
-        <v>-3400.404</v>
+        <v>629.86300000000006</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>3935.5540000000001</v>
+        <v>484.90499999999997</v>
       </c>
       <c r="AA26">
-        <v>330.57100000000003</v>
+        <v>213.32900000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>348.92700000000002</v>
+        <v>175.97300000000001</v>
       </c>
       <c r="D27">
-        <v>1306.105</v>
+        <v>659.91</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1306.105</v>
+        <v>659.91</v>
       </c>
       <c r="G27">
-        <v>9245.8430000000008</v>
+        <v>4495.1909999999998</v>
       </c>
       <c r="H27">
-        <v>123223.251</v>
+        <v>57842.470999999998</v>
       </c>
       <c r="I27">
-        <v>97042.520999999993</v>
+        <v>38937.906000000003</v>
       </c>
       <c r="J27">
-        <v>8087.6189999999997</v>
+        <v>7664.3090000000002</v>
       </c>
       <c r="K27">
-        <v>328.34500000000003</v>
+        <v>4048.7820000000002</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1401.41</v>
+        <v>-27.669</v>
       </c>
       <c r="N27">
-        <v>97431.603000000003</v>
+        <v>43924.978000000003</v>
       </c>
       <c r="O27">
-        <v>107010.147</v>
+        <v>51589.286999999997</v>
       </c>
       <c r="P27">
-        <v>8415.9639999999999</v>
+        <v>11713.091</v>
       </c>
       <c r="Q27">
-        <v>-33.587000000000003</v>
+        <v>-157.21</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>16409</v>
+        <v>12628</v>
       </c>
       <c r="T27">
-        <v>16213.103999999999</v>
+        <v>6253.1840000000002</v>
       </c>
       <c r="U27">
-        <v>1286.962</v>
+        <v>1467.7539999999999</v>
       </c>
       <c r="V27">
-        <v>1285.816</v>
+        <v>411.92500000000001</v>
       </c>
       <c r="W27">
-        <v>-133.934</v>
+        <v>-65.733999999999995</v>
       </c>
       <c r="X27">
-        <v>-493.39600000000002</v>
+        <v>514.26099999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1670.1369999999999</v>
+        <v>-350.928</v>
       </c>
       <c r="AA27">
-        <v>348.92700000000002</v>
+        <v>175.97300000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>381.053</v>
+        <v>214.16900000000001</v>
       </c>
       <c r="D28">
-        <v>1347.0160000000001</v>
+        <v>715.029</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1347.0160000000001</v>
+        <v>715.029</v>
       </c>
       <c r="G28">
-        <v>7529.3180000000002</v>
+        <v>4356.5789999999997</v>
       </c>
       <c r="H28">
-        <v>120896.567</v>
+        <v>57869.069000000003</v>
       </c>
       <c r="I28">
-        <v>93540.937999999995</v>
+        <v>39418.635000000002</v>
       </c>
       <c r="J28">
-        <v>7649.58</v>
+        <v>8444.7970000000005</v>
       </c>
       <c r="K28">
-        <v>1814.9090000000001</v>
+        <v>2933.0810000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>95426.051000000007</v>
+        <v>43198.964999999997</v>
       </c>
       <c r="O28">
-        <v>104613.03</v>
+        <v>51693.762000000002</v>
       </c>
       <c r="P28">
-        <v>9464.4889999999996</v>
+        <v>11377.878000000001</v>
       </c>
       <c r="Q28">
-        <v>58.515999999999998</v>
+        <v>-130.93600000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>16526</v>
+        <v>12701</v>
       </c>
       <c r="T28">
-        <v>16283.537</v>
+        <v>6175.3069999999998</v>
       </c>
       <c r="U28">
-        <v>1345.4780000000001</v>
+        <v>1336.818</v>
       </c>
       <c r="V28">
-        <v>337.471</v>
+        <v>176.036</v>
       </c>
       <c r="W28">
-        <v>-133.19200000000001</v>
+        <v>-64.456999999999994</v>
       </c>
       <c r="X28">
-        <v>-2769.76</v>
+        <v>-104.94199999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2098.2959999999998</v>
+        <v>88.311999999999998</v>
       </c>
       <c r="AA28">
-        <v>381.053</v>
+        <v>214.16900000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>355.923</v>
+        <v>199.18700000000001</v>
       </c>
       <c r="D29">
-        <v>1386.5630000000001</v>
+        <v>686.58699999999999</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1386.5630000000001</v>
+        <v>686.58699999999999</v>
       </c>
       <c r="G29">
-        <v>8873.5789999999997</v>
+        <v>4465.893</v>
       </c>
       <c r="H29">
-        <v>120401.804</v>
+        <v>60008.123</v>
       </c>
       <c r="I29">
-        <v>93513.392999999996</v>
+        <v>38473.178999999996</v>
       </c>
       <c r="J29">
-        <v>8577.6450000000004</v>
+        <v>9516.1919999999991</v>
       </c>
       <c r="K29">
-        <v>314.57600000000002</v>
+        <v>4920.9009999999998</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>93897.259000000005</v>
+        <v>44253.927000000003</v>
       </c>
       <c r="O29">
-        <v>104083.75199999999</v>
+        <v>53770.118999999999</v>
       </c>
       <c r="P29">
-        <v>8892.2209999999995</v>
+        <v>14437.093000000001</v>
       </c>
       <c r="Q29">
-        <v>22.774000000000001</v>
+        <v>-9.2409999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>16478</v>
+        <v>12534</v>
       </c>
       <c r="T29">
-        <v>16318.052</v>
+        <v>6238.0039999999999</v>
       </c>
       <c r="U29">
-        <v>1368.252</v>
+        <v>1327.577</v>
       </c>
       <c r="V29">
-        <v>442.57900000000001</v>
+        <v>309.77800000000002</v>
       </c>
       <c r="W29">
-        <v>-131.88200000000001</v>
+        <v>-74.837000000000003</v>
       </c>
       <c r="X29">
-        <v>-934.34400000000005</v>
+        <v>1956.0540000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-559.49900000000002</v>
+        <v>-1112.6559999999999</v>
       </c>
       <c r="AA29">
-        <v>355.923</v>
+        <v>199.18700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>322.40300000000002</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="D30">
-        <v>1424.5029999999999</v>
+        <v>529.70000000000005</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1424.5029999999999</v>
+        <v>529.70000000000005</v>
       </c>
       <c r="G30">
-        <v>7462.4759999999997</v>
+        <v>5419.8050000000003</v>
       </c>
       <c r="H30">
-        <v>118593.48699999999</v>
+        <v>64875.639000000003</v>
       </c>
       <c r="I30">
-        <v>92432.145999999993</v>
+        <v>41266.188000000002</v>
       </c>
       <c r="J30">
-        <v>7441.5230000000001</v>
+        <v>10288.130999999999</v>
       </c>
       <c r="K30">
-        <v>314.28500000000003</v>
+        <v>5821.8969999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>93521.979000000007</v>
+        <v>47308.811999999998</v>
       </c>
       <c r="O30">
-        <v>102342.66800000001</v>
+        <v>58390.383000000002</v>
       </c>
       <c r="P30">
-        <v>8455.7150000000001</v>
+        <v>16139.842000000001</v>
       </c>
       <c r="Q30">
-        <v>52.636000000000003</v>
+        <v>439.97</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>15913</v>
+        <v>12422</v>
       </c>
       <c r="T30">
-        <v>16250.819</v>
+        <v>6485.2560000000003</v>
       </c>
       <c r="U30">
-        <v>741.48699999999997</v>
+        <v>1767.547</v>
       </c>
       <c r="V30">
-        <v>716.06899999999996</v>
+        <v>437.01799999999997</v>
       </c>
       <c r="W30">
-        <v>-131.12799999999999</v>
+        <v>-76.872</v>
       </c>
       <c r="X30">
-        <v>-1879.021</v>
+        <v>1225.1199999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1616.153</v>
+        <v>966.36699999999996</v>
       </c>
       <c r="AA30">
-        <v>322.40300000000002</v>
+        <v>64.930000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>352.61</v>
+        <v>202.196</v>
       </c>
       <c r="D31">
-        <v>1391.213</v>
+        <v>731.51300000000003</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1391.213</v>
+        <v>731.51300000000003</v>
       </c>
       <c r="G31">
-        <v>8475.5310000000009</v>
+        <v>5115.6729999999998</v>
       </c>
       <c r="H31">
-        <v>118622.82399999999</v>
+        <v>66085.573000000004</v>
       </c>
       <c r="I31">
-        <v>90946.63</v>
+        <v>41533.01</v>
       </c>
       <c r="J31">
-        <v>8591.0509999999995</v>
+        <v>10672.411</v>
       </c>
       <c r="K31">
-        <v>1868.576</v>
+        <v>6195.4340000000002</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-504.19200000000001</v>
+        <v>-1120.2370000000001</v>
       </c>
       <c r="N31">
-        <v>92881.024999999994</v>
+        <v>48878.2</v>
       </c>
       <c r="O31">
-        <v>102913.13</v>
+        <v>59597.610999999997</v>
       </c>
       <c r="P31">
-        <v>10459.627</v>
+        <v>16867.845000000001</v>
       </c>
       <c r="Q31">
-        <v>-128.22399999999999</v>
+        <v>8.5790000000000006</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>16531</v>
+        <v>12854</v>
       </c>
       <c r="T31">
-        <v>15709.694</v>
+        <v>6487.9620000000004</v>
       </c>
       <c r="U31">
-        <v>1292.664</v>
+        <v>1776.126</v>
       </c>
       <c r="V31">
-        <v>484.17899999999997</v>
+        <v>333.11700000000002</v>
       </c>
       <c r="W31">
-        <v>-129.68600000000001</v>
+        <v>-77.004000000000005</v>
       </c>
       <c r="X31">
-        <v>-363.87299999999999</v>
+        <v>893.10699999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-616.71299999999997</v>
+        <v>109.661</v>
       </c>
       <c r="AA31">
-        <v>352.61</v>
+        <v>202.196</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>493.16</v>
+        <v>160.26499999999999</v>
       </c>
       <c r="D32">
-        <v>1431.201</v>
+        <v>657.81399999999996</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1431.201</v>
+        <v>657.81399999999996</v>
       </c>
       <c r="G32">
-        <v>9842.98</v>
+        <v>5119.915</v>
       </c>
       <c r="H32">
-        <v>118426.053</v>
+        <v>65893.428</v>
       </c>
       <c r="I32">
-        <v>89272.588000000003</v>
+        <v>41925.69</v>
       </c>
       <c r="J32">
-        <v>8382.3160000000007</v>
+        <v>12770.11</v>
       </c>
       <c r="K32">
-        <v>3529.4369999999999</v>
+        <v>3761.55</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>92889.804000000004</v>
+        <v>46559.262000000002</v>
       </c>
       <c r="O32">
-        <v>102848.16800000001</v>
+        <v>59374.372000000003</v>
       </c>
       <c r="P32">
-        <v>11911.753000000001</v>
+        <v>16531.66</v>
       </c>
       <c r="Q32">
-        <v>76.430000000000007</v>
+        <v>-137.62299999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>16760</v>
+        <v>13052</v>
       </c>
       <c r="T32">
-        <v>15577.885</v>
+        <v>6519.0559999999996</v>
       </c>
       <c r="U32">
-        <v>1369.0940000000001</v>
+        <v>1638.5029999999999</v>
       </c>
       <c r="V32">
-        <v>37.063000000000002</v>
+        <v>511.20600000000002</v>
       </c>
       <c r="W32">
-        <v>-134.13900000000001</v>
+        <v>-77.117000000000004</v>
       </c>
       <c r="X32">
-        <v>-872.15099999999995</v>
+        <v>36.152000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>203.50700000000001</v>
+        <v>427.44499999999999</v>
       </c>
       <c r="AA32">
-        <v>493.16</v>
+        <v>160.26499999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>526.09100000000001</v>
+        <v>91.185000000000002</v>
       </c>
       <c r="D33">
-        <v>1472.3320000000001</v>
+        <v>500.95600000000002</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1472.3320000000001</v>
+        <v>500.95600000000002</v>
       </c>
       <c r="G33">
-        <v>9108.3289999999997</v>
+        <v>5136.0510000000004</v>
       </c>
       <c r="H33">
-        <v>116827.637</v>
+        <v>65247.214999999997</v>
       </c>
       <c r="I33">
-        <v>89140.395999999993</v>
+        <v>42501.292999999998</v>
       </c>
       <c r="J33">
-        <v>9140.268</v>
+        <v>12481.967000000001</v>
       </c>
       <c r="K33">
-        <v>1621.078</v>
+        <v>2929.2420000000002</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>90829.67</v>
+        <v>46305.563999999998</v>
       </c>
       <c r="O33">
-        <v>101391.552</v>
+        <v>58830.531000000003</v>
       </c>
       <c r="P33">
-        <v>10761.346</v>
+        <v>15411.209000000001</v>
       </c>
       <c r="Q33">
-        <v>-57.482999999999997</v>
+        <v>-250.98599999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>16798</v>
+        <v>12914</v>
       </c>
       <c r="T33">
-        <v>15436.084999999999</v>
+        <v>6416.6840000000002</v>
       </c>
       <c r="U33">
-        <v>1311.6110000000001</v>
+        <v>1387.5170000000001</v>
       </c>
       <c r="V33">
-        <v>1018.375</v>
+        <v>449.44200000000001</v>
       </c>
       <c r="W33">
-        <v>-161.18299999999999</v>
+        <v>-77.147999999999996</v>
       </c>
       <c r="X33">
-        <v>-1949.6</v>
+        <v>-643.52499999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>309.613</v>
+        <v>151.428</v>
       </c>
       <c r="AA33">
-        <v>526.09100000000001</v>
+        <v>91.185000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>546.21900000000005</v>
+        <v>102.241</v>
       </c>
       <c r="D34">
-        <v>1501.556</v>
+        <v>576.49199999999996</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1501.556</v>
+        <v>576.49199999999996</v>
       </c>
       <c r="G34">
-        <v>10956.186</v>
+        <v>5956.0420000000004</v>
       </c>
       <c r="H34">
-        <v>120097.40300000001</v>
+        <v>65815.756999999998</v>
       </c>
       <c r="I34">
-        <v>90156.572</v>
+        <v>42581.262999999999</v>
       </c>
       <c r="J34">
-        <v>7799.1130000000003</v>
+        <v>11974.589</v>
       </c>
       <c r="K34">
-        <v>4589.0640000000003</v>
+        <v>3530.8139999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>95486.710999999996</v>
+        <v>46355.093000000001</v>
       </c>
       <c r="O34">
-        <v>104637.212</v>
+        <v>59031.025999999998</v>
       </c>
       <c r="P34">
-        <v>13033.977999999999</v>
+        <v>15605.963</v>
       </c>
       <c r="Q34">
-        <v>293.82799999999997</v>
+        <v>180.63399999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>16413</v>
+        <v>12167</v>
       </c>
       <c r="T34">
-        <v>15460.191000000001</v>
+        <v>6784.7309999999998</v>
       </c>
       <c r="U34">
-        <v>921.43899999999996</v>
+        <v>1385.0630000000001</v>
       </c>
       <c r="V34">
-        <v>550.23500000000001</v>
+        <v>334.65100000000001</v>
       </c>
       <c r="W34">
-        <v>-157.89500000000001</v>
+        <v>-77.231999999999999</v>
       </c>
       <c r="X34">
-        <v>2690.3739999999998</v>
+        <v>150.21299999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-1088.0429999999999</v>
+        <v>223.07400000000001</v>
       </c>
       <c r="AA34">
-        <v>546.21900000000005</v>
+        <v>102.241</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>482.74200000000002</v>
+        <v>64.221000000000004</v>
       </c>
       <c r="D35">
-        <v>1528.825</v>
+        <v>522.14800000000002</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1528.825</v>
+        <v>522.14800000000002</v>
       </c>
       <c r="G35">
-        <v>10013.056</v>
+        <v>5377.77</v>
       </c>
       <c r="H35">
-        <v>120025.205</v>
+        <v>64883.195</v>
       </c>
       <c r="I35">
-        <v>90469.75</v>
+        <v>42477.356</v>
       </c>
       <c r="J35">
-        <v>8476.0239999999994</v>
+        <v>11535.644</v>
       </c>
       <c r="K35">
-        <v>3725.4119999999998</v>
+        <v>2641.8110000000001</v>
       </c>
       <c r="L35">
-        <v>-795.81200000000001</v>
+        <v>-367.92399999999998</v>
       </c>
       <c r="M35">
-        <v>-1.139</v>
+        <v>-520.54899999999998</v>
       </c>
       <c r="N35">
-        <v>94368.944000000003</v>
+        <v>46411.712</v>
       </c>
       <c r="O35">
-        <v>104437.67600000001</v>
+        <v>57981.356</v>
       </c>
       <c r="P35">
-        <v>12621.394</v>
+        <v>14177.455</v>
       </c>
       <c r="Q35">
-        <v>-338.17899999999997</v>
+        <v>-414.50599999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>17080</v>
+        <v>12944</v>
       </c>
       <c r="T35">
-        <v>15587.529</v>
+        <v>6901.8389999999999</v>
       </c>
       <c r="U35">
-        <v>1267.26</v>
+        <v>1153.645</v>
       </c>
       <c r="V35">
-        <v>413.30599999999998</v>
+        <v>74.605000000000004</v>
       </c>
       <c r="W35">
-        <v>-156.96299999999999</v>
+        <v>-82.076999999999998</v>
       </c>
       <c r="X35">
-        <v>-1022.746</v>
+        <v>-1067.373</v>
       </c>
       <c r="Y35">
-        <v>326.49799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>686.05</v>
+        <v>517.41099999999994</v>
       </c>
       <c r="AA35">
-        <v>482.74200000000002</v>
+        <v>64.221000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>473.26</v>
+        <v>51.188000000000002</v>
       </c>
       <c r="D36">
-        <v>1450.576</v>
+        <v>626.21600000000001</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1450.576</v>
+        <v>626.21600000000001</v>
       </c>
       <c r="G36">
-        <v>11852.347</v>
+        <v>5715.6450000000004</v>
       </c>
       <c r="H36">
-        <v>121554.895</v>
+        <v>69913.217000000004</v>
       </c>
       <c r="I36">
-        <v>91681.024000000005</v>
+        <v>46754.707000000002</v>
       </c>
       <c r="J36">
-        <v>7655.5069999999996</v>
+        <v>11568.237999999999</v>
       </c>
       <c r="K36">
-        <v>4715.47</v>
+        <v>2951.1489999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>96594.766000000003</v>
+        <v>49854.125999999997</v>
       </c>
       <c r="O36">
-        <v>105863.068</v>
+        <v>62513.053</v>
       </c>
       <c r="P36">
-        <v>12793.361000000001</v>
+        <v>14519.387000000001</v>
       </c>
       <c r="Q36">
-        <v>4.351</v>
+        <v>-2.9169999999999998</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>17516</v>
+        <v>14187</v>
       </c>
       <c r="T36">
-        <v>15691.826999999999</v>
+        <v>7400.1639999999998</v>
       </c>
       <c r="U36">
-        <v>1271.6110000000001</v>
+        <v>1150.7280000000001</v>
       </c>
       <c r="V36">
-        <v>66.872</v>
+        <v>339.9</v>
       </c>
       <c r="W36">
-        <v>-153.334</v>
+        <v>-89.778999999999996</v>
       </c>
       <c r="X36">
-        <v>789.59900000000005</v>
+        <v>-1212.855</v>
       </c>
       <c r="Y36">
-        <v>333.08300000000003</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-32.478000000000002</v>
+        <v>677.90099999999995</v>
       </c>
       <c r="AA36">
-        <v>473.26</v>
+        <v>51.188000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>480.08100000000002</v>
+        <v>127.664</v>
       </c>
       <c r="D37">
-        <v>1512.6690000000001</v>
+        <v>642.88099999999997</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1512.6690000000001</v>
+        <v>642.88099999999997</v>
       </c>
       <c r="G37">
-        <v>16024.047</v>
+        <v>5866.9309999999996</v>
       </c>
       <c r="H37">
-        <v>125500.92600000001</v>
+        <v>68997.45</v>
       </c>
       <c r="I37">
-        <v>95113.933000000005</v>
+        <v>46861.851000000002</v>
       </c>
       <c r="J37">
-        <v>7002.5240000000003</v>
+        <v>10354.392</v>
       </c>
       <c r="K37">
-        <v>5617.6459999999997</v>
+        <v>2927.268</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>100919.914</v>
+        <v>49938.256000000001</v>
       </c>
       <c r="O37">
-        <v>109721.11500000001</v>
+        <v>61385.087</v>
       </c>
       <c r="P37">
-        <v>13045.023999999999</v>
+        <v>13281.66</v>
       </c>
       <c r="Q37">
-        <v>547.45000000000005</v>
+        <v>222.98599999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>17536</v>
+        <v>13921</v>
       </c>
       <c r="T37">
-        <v>15779.811</v>
+        <v>7612.3630000000003</v>
       </c>
       <c r="U37">
-        <v>1819.0609999999999</v>
+        <v>1373.7139999999999</v>
       </c>
       <c r="V37">
-        <v>746.67</v>
+        <v>661.01599999999996</v>
       </c>
       <c r="W37">
-        <v>-151.31200000000001</v>
+        <v>-92.584999999999994</v>
       </c>
       <c r="X37">
-        <v>3219.5880000000002</v>
+        <v>-1669.5029999999999</v>
       </c>
       <c r="Y37">
-        <v>327.142</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-2771.8589999999999</v>
+        <v>754.83699999999999</v>
       </c>
       <c r="AA37">
-        <v>480.08100000000002</v>
+        <v>127.664</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>493.06599999999997</v>
+        <v>136.81800000000001</v>
       </c>
       <c r="D38">
-        <v>1475.873</v>
+        <v>679.60900000000004</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1475.873</v>
+        <v>679.60900000000004</v>
       </c>
       <c r="G38">
-        <v>10035.842000000001</v>
+        <v>2807.1729999999998</v>
       </c>
       <c r="H38">
-        <v>119872.757</v>
+        <v>68880.399000000005</v>
       </c>
       <c r="I38">
-        <v>94770.069000000003</v>
+        <v>47449.838000000003</v>
       </c>
       <c r="J38">
-        <v>5077.7070000000003</v>
+        <v>10105.200999999999</v>
       </c>
       <c r="K38">
-        <v>149.45400000000001</v>
+        <v>2744.78</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>96933.376000000004</v>
+        <v>50430.31</v>
       </c>
       <c r="O38">
-        <v>104156.10799999999</v>
+        <v>61127.491999999998</v>
       </c>
       <c r="P38">
-        <v>7623.64</v>
+        <v>12990.834999999999</v>
       </c>
       <c r="Q38">
-        <v>-382.75599999999997</v>
+        <v>-127.372</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>16998</v>
+        <v>12802</v>
       </c>
       <c r="T38">
-        <v>15716.648999999999</v>
+        <v>7752.9070000000002</v>
       </c>
       <c r="U38">
-        <v>770.30499999999995</v>
+        <v>1083.3900000000001</v>
       </c>
       <c r="V38">
-        <v>1130.7070000000001</v>
+        <v>113.86799999999999</v>
       </c>
       <c r="W38">
-        <v>-157.983</v>
+        <v>-93.210999999999999</v>
       </c>
       <c r="X38">
-        <v>-6240.1369999999997</v>
+        <v>-63.161999999999999</v>
       </c>
       <c r="Y38">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>6484.6049999999996</v>
+        <v>-269.20100000000002</v>
       </c>
       <c r="AA38">
-        <v>493.06599999999997</v>
+        <v>136.81800000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>268.822</v>
+        <v>150.95500000000001</v>
       </c>
       <c r="D39">
-        <v>1256.165</v>
+        <v>709.04</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1256.165</v>
+        <v>709.04</v>
       </c>
       <c r="G39">
-        <v>12557.64</v>
+        <v>1896.923</v>
       </c>
       <c r="H39">
-        <v>124577.833</v>
+        <v>68439.221999999994</v>
       </c>
       <c r="I39">
-        <v>100183.308</v>
+        <v>47538.404999999999</v>
       </c>
       <c r="J39">
-        <v>6321.4350000000004</v>
+        <v>10065.894</v>
       </c>
       <c r="K39">
-        <v>223.90100000000001</v>
+        <v>2186.7890000000002</v>
       </c>
       <c r="L39">
-        <v>-3.1829999999999998</v>
+        <v>-571.827</v>
       </c>
       <c r="M39">
-        <v>-753.12300000000005</v>
+        <v>-252.88</v>
       </c>
       <c r="N39">
-        <v>100495.476</v>
+        <v>49839.177000000003</v>
       </c>
       <c r="O39">
-        <v>108762.039</v>
+        <v>60523.535000000003</v>
       </c>
       <c r="P39">
-        <v>6545.3360000000002</v>
+        <v>12252.683000000001</v>
       </c>
       <c r="Q39">
-        <v>-138.113</v>
+        <v>-202.673</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>17416</v>
+        <v>13226</v>
       </c>
       <c r="T39">
-        <v>15815.794</v>
+        <v>7915.6869999999999</v>
       </c>
       <c r="U39">
-        <v>1298.192</v>
+        <v>1043.6690000000001</v>
       </c>
       <c r="V39">
-        <v>-394.44200000000001</v>
+        <v>653.59900000000005</v>
       </c>
       <c r="W39">
-        <v>-164.51400000000001</v>
+        <v>-93.358999999999995</v>
       </c>
       <c r="X39">
-        <v>4108.692</v>
+        <v>-808.61699999999996</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-1066.683</v>
+        <v>-573.43200000000002</v>
       </c>
       <c r="AA39">
-        <v>268.822</v>
+        <v>150.95500000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>241.054</v>
+        <v>188.749</v>
       </c>
       <c r="D40">
-        <v>1119.4100000000001</v>
+        <v>755.78399999999999</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1119.4100000000001</v>
+        <v>755.78399999999999</v>
       </c>
       <c r="G40">
-        <v>24785.582999999999</v>
+        <v>2196.1799999999998</v>
       </c>
       <c r="H40">
-        <v>139536.96900000001</v>
+        <v>68153.615999999995</v>
       </c>
       <c r="I40">
-        <v>114967.959</v>
+        <v>47522.671000000002</v>
       </c>
       <c r="J40">
-        <v>6321.2910000000002</v>
+        <v>9255.5290000000005</v>
       </c>
       <c r="K40">
-        <v>207.26900000000001</v>
+        <v>2539.422</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>115279.52899999999</v>
+        <v>50150.28</v>
       </c>
       <c r="O40">
-        <v>123591.864</v>
+        <v>60051.771999999997</v>
       </c>
       <c r="P40">
-        <v>6528.56</v>
+        <v>11794.950999999999</v>
       </c>
       <c r="Q40">
-        <v>56.622999999999998</v>
+        <v>12.217000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>17098</v>
+        <v>13022</v>
       </c>
       <c r="T40">
-        <v>15945.105</v>
+        <v>8101.8440000000001</v>
       </c>
       <c r="U40">
-        <v>1354.8150000000001</v>
+        <v>1055.886</v>
       </c>
       <c r="V40">
-        <v>525.51900000000001</v>
+        <v>375.17099999999999</v>
       </c>
       <c r="W40">
-        <v>-154.33199999999999</v>
+        <v>-93.843999999999994</v>
       </c>
       <c r="X40">
-        <v>14622.989</v>
+        <v>-654.62199999999996</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-11446.548000000001</v>
+        <v>43.188000000000002</v>
       </c>
       <c r="AA40">
-        <v>241.054</v>
+        <v>188.749</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>372.13600000000002</v>
+        <v>192.01499999999999</v>
       </c>
       <c r="D41">
-        <v>1313.6559999999999</v>
+        <v>766.76700000000005</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1313.6559999999999</v>
+        <v>766.76700000000005</v>
       </c>
       <c r="G41">
-        <v>24407.181</v>
+        <v>3037.125</v>
       </c>
       <c r="H41">
-        <v>138626.74299999999</v>
+        <v>68246.837</v>
       </c>
       <c r="I41">
-        <v>115163.33900000001</v>
+        <v>48654.623</v>
       </c>
       <c r="J41">
-        <v>5458.8850000000002</v>
+        <v>8991.5079999999998</v>
       </c>
       <c r="K41">
-        <v>184.054</v>
+        <v>1636.7670000000001</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>115413.55100000001</v>
+        <v>50401.402999999998</v>
       </c>
       <c r="O41">
-        <v>122525.73</v>
+        <v>60015.063999999998</v>
       </c>
       <c r="P41">
-        <v>5642.9390000000003</v>
+        <v>10628.275</v>
       </c>
       <c r="Q41">
-        <v>134.417</v>
+        <v>33.439</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>16980</v>
+        <v>12837</v>
       </c>
       <c r="T41">
-        <v>16101.013000000001</v>
+        <v>8231.7729999999992</v>
       </c>
       <c r="U41">
-        <v>1489.232</v>
+        <v>1089.325</v>
       </c>
       <c r="V41">
-        <v>-6.0119999999999996</v>
+        <v>220.63300000000001</v>
       </c>
       <c r="W41">
-        <v>-162.80199999999999</v>
+        <v>-94.090999999999994</v>
       </c>
       <c r="X41">
-        <v>-826.827</v>
+        <v>-196.88800000000001</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>1387.797</v>
+        <v>-298.86399999999998</v>
       </c>
       <c r="AA41">
-        <v>372.13600000000002</v>
+        <v>192.01499999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>204.44200000000001</v>
+      </c>
+      <c r="D42">
+        <v>748.49599999999998</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>748.49599999999998</v>
+      </c>
+      <c r="G42">
+        <v>2640.7080000000001</v>
+      </c>
+      <c r="H42">
+        <v>68021.263000000006</v>
+      </c>
+      <c r="I42">
+        <v>49805.284</v>
+      </c>
+      <c r="J42">
+        <v>7840.1509999999998</v>
+      </c>
+      <c r="K42">
+        <v>1284.261</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>51161.499000000003</v>
+      </c>
+      <c r="O42">
+        <v>59663.567999999999</v>
+      </c>
+      <c r="P42">
+        <v>9124.4120000000003</v>
+      </c>
+      <c r="Q42">
+        <v>-155.57</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>12031</v>
+      </c>
+      <c r="T42">
+        <v>8357.6949999999997</v>
+      </c>
+      <c r="U42">
+        <v>737.35299999999995</v>
+      </c>
+      <c r="V42">
+        <v>426.24400000000003</v>
+      </c>
+      <c r="W42">
+        <v>-94.233999999999995</v>
+      </c>
+      <c r="X42">
+        <v>-803.51700000000005</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1275.347</v>
+      </c>
+      <c r="AA42">
+        <v>204.44200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>206.273</v>
+      </c>
+      <c r="D43">
+        <v>808.22400000000005</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>808.22400000000005</v>
+      </c>
+      <c r="G43">
+        <v>2037.261</v>
+      </c>
+      <c r="H43">
+        <v>67881.207999999999</v>
+      </c>
+      <c r="I43">
+        <v>50548.099000000002</v>
+      </c>
+      <c r="J43">
+        <v>7305.42</v>
+      </c>
+      <c r="K43">
+        <v>812.71900000000005</v>
+      </c>
+      <c r="L43">
+        <v>-442.75099999999998</v>
+      </c>
+      <c r="M43">
+        <v>-528.51099999999997</v>
+      </c>
+      <c r="N43">
+        <v>51456.58</v>
+      </c>
+      <c r="O43">
+        <v>59373.69</v>
+      </c>
+      <c r="P43">
+        <v>8118.1390000000001</v>
+      </c>
+      <c r="Q43">
+        <v>48.55</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>12715</v>
+      </c>
+      <c r="T43">
+        <v>8507.518</v>
+      </c>
+      <c r="U43">
+        <v>982.30499999999995</v>
+      </c>
+      <c r="V43">
+        <v>770.65300000000002</v>
+      </c>
+      <c r="W43">
+        <v>-94.774000000000001</v>
+      </c>
+      <c r="X43">
+        <v>-309.524</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>142.084</v>
+      </c>
+      <c r="AA43">
+        <v>206.273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>322.358</v>
+      </c>
+      <c r="D44">
+        <v>1038.9280000000001</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1038.9280000000001</v>
+      </c>
+      <c r="G44">
+        <v>4984.8109999999997</v>
+      </c>
+      <c r="H44">
+        <v>77727.153999999995</v>
+      </c>
+      <c r="I44">
+        <v>59229.214999999997</v>
+      </c>
+      <c r="J44">
+        <v>7128.9160000000002</v>
+      </c>
+      <c r="K44">
+        <v>940.64800000000002</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>60259.044999999998</v>
+      </c>
+      <c r="O44">
+        <v>68482.960000000006</v>
+      </c>
+      <c r="P44">
+        <v>8069.5640000000003</v>
+      </c>
+      <c r="Q44">
+        <v>350.61</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>9244.1939999999995</v>
+      </c>
+      <c r="U44">
+        <v>1332.915</v>
+      </c>
+      <c r="V44">
+        <v>92.525000000000006</v>
+      </c>
+      <c r="W44">
+        <v>-98.406999999999996</v>
+      </c>
+      <c r="X44">
+        <v>-994.80700000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>808.21100000000001</v>
+      </c>
+      <c r="AA44">
+        <v>322.358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>183.108</v>
+      </c>
+      <c r="D45">
+        <v>927.101</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>927.101</v>
+      </c>
+      <c r="G45">
+        <v>4724.875</v>
+      </c>
+      <c r="H45">
+        <v>77863.891000000003</v>
+      </c>
+      <c r="I45">
+        <v>59482.389000000003</v>
+      </c>
+      <c r="J45">
+        <v>6748.857</v>
+      </c>
+      <c r="K45">
+        <v>1158.201</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>60738.726999999999</v>
+      </c>
+      <c r="O45">
+        <v>68488.764999999999</v>
+      </c>
+      <c r="P45">
+        <v>7907.058</v>
+      </c>
+      <c r="Q45">
+        <v>21.141999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>15074</v>
+      </c>
+      <c r="T45">
+        <v>9375.1260000000002</v>
+      </c>
+      <c r="U45">
+        <v>1354.057</v>
+      </c>
+      <c r="V45">
+        <v>422.31900000000002</v>
+      </c>
+      <c r="W45">
+        <v>-93.222999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-175.55099999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-208.99600000000001</v>
+      </c>
+      <c r="AA45">
+        <v>183.108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>147.74</v>
+      </c>
+      <c r="D46">
+        <v>729.47299999999996</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>729.47299999999996</v>
+      </c>
+      <c r="G46">
+        <v>3076.2539999999999</v>
+      </c>
+      <c r="H46">
+        <v>77924.286999999997</v>
+      </c>
+      <c r="I46">
+        <v>59394.648999999998</v>
+      </c>
+      <c r="J46">
+        <v>6386.2349999999997</v>
+      </c>
+      <c r="K46">
+        <v>1222.7670000000001</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>60985.307000000001</v>
+      </c>
+      <c r="O46">
+        <v>68653.077999999994</v>
+      </c>
+      <c r="P46">
+        <v>7908.9930000000004</v>
+      </c>
+      <c r="Q46">
+        <v>98.34</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>14235</v>
+      </c>
+      <c r="T46">
+        <v>9271.2090000000007</v>
+      </c>
+      <c r="U46">
+        <v>1069.9079999999999</v>
+      </c>
+      <c r="V46">
+        <v>486.74900000000002</v>
+      </c>
+      <c r="W46">
+        <v>-111.928</v>
+      </c>
+      <c r="X46">
+        <v>-142.654</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1522.6289999999999</v>
+      </c>
+      <c r="AA46">
+        <v>147.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>206.46299999999999</v>
+      </c>
+      <c r="D47">
+        <v>948.11199999999997</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>948.11199999999997</v>
+      </c>
+      <c r="G47">
+        <v>3683.759</v>
+      </c>
+      <c r="H47">
+        <v>79186.887000000002</v>
+      </c>
+      <c r="I47">
+        <v>60912.942999999999</v>
+      </c>
+      <c r="J47">
+        <v>6476.5259999999998</v>
+      </c>
+      <c r="K47">
+        <v>917.79600000000005</v>
+      </c>
+      <c r="L47">
+        <v>-270.08100000000002</v>
+      </c>
+      <c r="M47">
+        <v>-202.352</v>
+      </c>
+      <c r="N47">
+        <v>61921.603000000003</v>
+      </c>
+      <c r="O47">
+        <v>69758.198999999993</v>
+      </c>
+      <c r="P47">
+        <v>7394.3220000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-108.30500000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>14864</v>
+      </c>
+      <c r="T47">
+        <v>9428.6880000000001</v>
+      </c>
+      <c r="U47">
+        <v>1344.0920000000001</v>
+      </c>
+      <c r="V47">
+        <v>539.01199999999994</v>
+      </c>
+      <c r="W47">
+        <v>-93.81</v>
+      </c>
+      <c r="X47">
+        <v>1036.537</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-630.26800000000003</v>
+      </c>
+      <c r="AA47">
+        <v>206.46299999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>233.38</v>
+      </c>
+      <c r="D48">
+        <v>979.63300000000004</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>979.63300000000004</v>
+      </c>
+      <c r="G48">
+        <v>3559.0720000000001</v>
+      </c>
+      <c r="H48">
+        <v>80807.577999999994</v>
+      </c>
+      <c r="I48">
+        <v>62548.807000000001</v>
+      </c>
+      <c r="J48">
+        <v>5687.8680000000004</v>
+      </c>
+      <c r="K48">
+        <v>1420.0309999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>64036.360999999997</v>
+      </c>
+      <c r="O48">
+        <v>71177.671000000002</v>
+      </c>
+      <c r="P48">
+        <v>7107.8990000000003</v>
+      </c>
+      <c r="Q48">
+        <v>78.739000000000004</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>14629</v>
+      </c>
+      <c r="T48">
+        <v>9629.9069999999992</v>
+      </c>
+      <c r="U48">
+        <v>1422.8309999999999</v>
+      </c>
+      <c r="V48">
+        <v>105.616</v>
+      </c>
+      <c r="W48">
+        <v>-112.361</v>
+      </c>
+      <c r="X48">
+        <v>1345.3720000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>400.81099999999998</v>
+      </c>
+      <c r="AA48">
+        <v>233.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>293.46199999999999</v>
+      </c>
+      <c r="D49">
+        <v>1062.4549999999999</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1062.4549999999999</v>
+      </c>
+      <c r="G49">
+        <v>3144.5010000000002</v>
+      </c>
+      <c r="H49">
+        <v>81085.232999999993</v>
+      </c>
+      <c r="I49">
+        <v>64007.258000000002</v>
+      </c>
+      <c r="J49">
+        <v>4969.5360000000001</v>
+      </c>
+      <c r="K49">
+        <v>1056.2639999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>65142.112999999998</v>
+      </c>
+      <c r="O49">
+        <v>71139.706000000006</v>
+      </c>
+      <c r="P49">
+        <v>6025.8</v>
+      </c>
+      <c r="Q49">
+        <v>200.09700000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>14434</v>
+      </c>
+      <c r="T49">
+        <v>9945.527</v>
+      </c>
+      <c r="U49">
+        <v>1622.9280000000001</v>
+      </c>
+      <c r="V49">
+        <v>-170.852</v>
+      </c>
+      <c r="W49">
+        <v>-92.804000000000002</v>
+      </c>
+      <c r="X49">
+        <v>41.268000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1147.2080000000001</v>
+      </c>
+      <c r="AA49">
+        <v>293.46199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>296.19299999999998</v>
+      </c>
+      <c r="D50">
+        <v>1071.586</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1071.586</v>
+      </c>
+      <c r="G50">
+        <v>4527.0330000000004</v>
+      </c>
+      <c r="H50">
+        <v>83008.803</v>
+      </c>
+      <c r="I50">
+        <v>65611.252999999997</v>
+      </c>
+      <c r="J50">
+        <v>4356.46</v>
+      </c>
+      <c r="K50">
+        <v>1459.348</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>67376.179999999993</v>
+      </c>
+      <c r="O50">
+        <v>72806.210000000006</v>
+      </c>
+      <c r="P50">
+        <v>6067.1059999999998</v>
+      </c>
+      <c r="Q50">
+        <v>363.68700000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>13640</v>
+      </c>
+      <c r="T50">
+        <v>10202.593000000001</v>
+      </c>
+      <c r="U50">
+        <v>1381.826</v>
+      </c>
+      <c r="V50">
+        <v>26.204999999999998</v>
+      </c>
+      <c r="W50">
+        <v>-112.19199999999999</v>
+      </c>
+      <c r="X50">
+        <v>1671.9179999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>822.28300000000002</v>
+      </c>
+      <c r="AA50">
+        <v>296.19299999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>274.113</v>
+      </c>
+      <c r="D51">
+        <v>1050.932</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1050.932</v>
+      </c>
+      <c r="G51">
+        <v>4065.5990000000002</v>
+      </c>
+      <c r="H51">
+        <v>82811.956999999995</v>
+      </c>
+      <c r="I51">
+        <v>65089.726000000002</v>
+      </c>
+      <c r="J51">
+        <v>5394.5630000000001</v>
+      </c>
+      <c r="K51">
+        <v>711.73500000000001</v>
+      </c>
+      <c r="L51">
+        <v>-699.88900000000001</v>
+      </c>
+      <c r="M51">
+        <v>-3.46</v>
+      </c>
+      <c r="N51">
+        <v>65873.52</v>
+      </c>
+      <c r="O51">
+        <v>72389</v>
+      </c>
+      <c r="P51">
+        <v>6106.2979999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-160.548</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>14576</v>
+      </c>
+      <c r="T51">
+        <v>10422.957</v>
+      </c>
+      <c r="U51">
+        <v>1826.067</v>
+      </c>
+      <c r="V51">
+        <v>698.39800000000002</v>
+      </c>
+      <c r="W51">
+        <v>-95.557000000000002</v>
+      </c>
+      <c r="X51">
+        <v>-487.173</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-761.20500000000004</v>
+      </c>
+      <c r="AA51">
+        <v>274.113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>348.46600000000001</v>
+      </c>
+      <c r="D52">
+        <v>1129.2760000000001</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1129.2760000000001</v>
+      </c>
+      <c r="G52">
+        <v>4933.8410000000003</v>
+      </c>
+      <c r="H52">
+        <v>83229.005000000005</v>
+      </c>
+      <c r="I52">
+        <v>65661.47</v>
+      </c>
+      <c r="J52">
+        <v>5122.3980000000001</v>
+      </c>
+      <c r="K52">
+        <v>608.88599999999997</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>66323.313999999998</v>
+      </c>
+      <c r="O52">
+        <v>72512.675000000003</v>
+      </c>
+      <c r="P52">
+        <v>5731.2839999999997</v>
+      </c>
+      <c r="Q52">
+        <v>-351.565</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>14885</v>
+      </c>
+      <c r="T52">
+        <v>10716.33</v>
+      </c>
+      <c r="U52">
+        <v>1474.502</v>
+      </c>
+      <c r="V52">
+        <v>-81.902000000000001</v>
+      </c>
+      <c r="W52">
+        <v>-113.01</v>
+      </c>
+      <c r="X52">
+        <v>150.066</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>156.857</v>
+      </c>
+      <c r="AA52">
+        <v>348.46600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>294.47899999999998</v>
+      </c>
+      <c r="D53">
+        <v>1102.4960000000001</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1102.4960000000001</v>
+      </c>
+      <c r="G53">
+        <v>5640.97</v>
+      </c>
+      <c r="H53">
+        <v>84427.485000000001</v>
+      </c>
+      <c r="I53">
+        <v>66552.141000000003</v>
+      </c>
+      <c r="J53">
+        <v>5121.326</v>
+      </c>
+      <c r="K53">
+        <v>531.678</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>67146.592000000004</v>
+      </c>
+      <c r="O53">
+        <v>73411.282999999996</v>
+      </c>
+      <c r="P53">
+        <v>5653.0039999999999</v>
+      </c>
+      <c r="Q53">
+        <v>585.25099999999998</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>15409</v>
+      </c>
+      <c r="T53">
+        <v>11016.201999999999</v>
+      </c>
+      <c r="U53">
+        <v>2059.7530000000002</v>
+      </c>
+      <c r="V53">
+        <v>-112.819</v>
+      </c>
+      <c r="W53">
+        <v>-96.444999999999993</v>
+      </c>
+      <c r="X53">
+        <v>468.702</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-629.66600000000005</v>
+      </c>
+      <c r="AA53">
+        <v>294.47899999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>221.422</v>
+      </c>
+      <c r="D54">
+        <v>1070.73</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1070.73</v>
+      </c>
+      <c r="G54">
+        <v>4582.2039999999997</v>
+      </c>
+      <c r="H54">
+        <v>85162.391000000003</v>
+      </c>
+      <c r="I54">
+        <v>67118.611999999994</v>
+      </c>
+      <c r="J54">
+        <v>5108.87</v>
+      </c>
+      <c r="K54">
+        <v>514.64400000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>67676.675000000003</v>
+      </c>
+      <c r="O54">
+        <v>73856.858999999997</v>
+      </c>
+      <c r="P54">
+        <v>5623.5140000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-386.81900000000002</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>14629</v>
+      </c>
+      <c r="T54">
+        <v>11305.531999999999</v>
+      </c>
+      <c r="U54">
+        <v>1077.3409999999999</v>
+      </c>
+      <c r="V54">
+        <v>428.64699999999999</v>
+      </c>
+      <c r="W54">
+        <v>-113.78700000000001</v>
+      </c>
+      <c r="X54">
+        <v>825.97799999999995</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-53.904000000000003</v>
+      </c>
+      <c r="AA54">
+        <v>221.422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>229.017</v>
+      </c>
+      <c r="D55">
+        <v>1044.54</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1044.54</v>
+      </c>
+      <c r="G55">
+        <v>6121.23</v>
+      </c>
+      <c r="H55">
+        <v>88530.36</v>
+      </c>
+      <c r="I55">
+        <v>68699.365999999995</v>
+      </c>
+      <c r="J55">
+        <v>6251.1970000000001</v>
+      </c>
+      <c r="K55">
+        <v>450.91899999999998</v>
+      </c>
+      <c r="L55">
+        <v>-30.245999999999999</v>
+      </c>
+      <c r="M55">
+        <v>-352.245</v>
+      </c>
+      <c r="N55">
+        <v>69209.97</v>
+      </c>
+      <c r="O55">
+        <v>76643.497000000003</v>
+      </c>
+      <c r="P55">
+        <v>6702.116</v>
+      </c>
+      <c r="Q55">
+        <v>90.183999999999997</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>15316</v>
+      </c>
+      <c r="T55">
+        <v>11886.862999999999</v>
+      </c>
+      <c r="U55">
+        <v>1763.1179999999999</v>
+      </c>
+      <c r="V55">
+        <v>561.09799999999996</v>
+      </c>
+      <c r="W55">
+        <v>-98.486000000000004</v>
+      </c>
+      <c r="X55">
+        <v>2970.1239999999998</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-3102.6149999999998</v>
+      </c>
+      <c r="AA55">
+        <v>229.017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>284.33600000000001</v>
+      </c>
+      <c r="D56">
+        <v>1095.5260000000001</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1095.5260000000001</v>
+      </c>
+      <c r="G56">
+        <v>6288.299</v>
+      </c>
+      <c r="H56">
+        <v>90835.001999999993</v>
+      </c>
+      <c r="I56">
+        <v>69829.255000000005</v>
+      </c>
+      <c r="J56">
+        <v>7391.9309999999996</v>
+      </c>
+      <c r="K56">
+        <v>378.447</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>70262.096000000005</v>
+      </c>
+      <c r="O56">
+        <v>78666.247000000003</v>
+      </c>
+      <c r="P56">
+        <v>7770.3779999999997</v>
+      </c>
+      <c r="Q56">
+        <v>154.31800000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>15387</v>
+      </c>
+      <c r="T56">
+        <v>12168.754999999999</v>
+      </c>
+      <c r="U56">
+        <v>1917.4359999999999</v>
+      </c>
+      <c r="V56">
+        <v>-91.593999999999994</v>
+      </c>
+      <c r="W56">
+        <v>-115.996</v>
+      </c>
+      <c r="X56">
+        <v>2117.81</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-1365.057</v>
+      </c>
+      <c r="AA56">
+        <v>284.33600000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>275.34399999999999</v>
+      </c>
+      <c r="D57">
+        <v>1091.17</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1091.17</v>
+      </c>
+      <c r="G57">
+        <v>10528.85</v>
+      </c>
+      <c r="H57">
+        <v>97228.342000000004</v>
+      </c>
+      <c r="I57">
+        <v>74341.501999999993</v>
+      </c>
+      <c r="J57">
+        <v>9061.3909999999996</v>
+      </c>
+      <c r="K57">
+        <v>352.18599999999998</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>74767.966</v>
+      </c>
+      <c r="O57">
+        <v>84895.025999999998</v>
+      </c>
+      <c r="P57">
+        <v>9413.5769999999993</v>
+      </c>
+      <c r="Q57">
+        <v>-393.79300000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>15260</v>
+      </c>
+      <c r="T57">
+        <v>12333.316000000001</v>
+      </c>
+      <c r="U57">
+        <v>1523.643</v>
+      </c>
+      <c r="V57">
+        <v>305.00599999999997</v>
+      </c>
+      <c r="W57">
+        <v>-110.602</v>
+      </c>
+      <c r="X57">
+        <v>6117.7330000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-5888.7809999999999</v>
+      </c>
+      <c r="AA57">
+        <v>275.34399999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>277.54899999999998</v>
+      </c>
+      <c r="D58">
+        <v>1100.4829999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1100.4829999999999</v>
+      </c>
+      <c r="G58">
+        <v>9278.5110000000004</v>
+      </c>
+      <c r="H58">
+        <v>96685.535000000003</v>
+      </c>
+      <c r="I58">
+        <v>73582.053</v>
+      </c>
+      <c r="J58">
+        <v>9006.9590000000007</v>
+      </c>
+      <c r="K58">
+        <v>404.73500000000001</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>74050.16</v>
+      </c>
+      <c r="O58">
+        <v>84349.638999999996</v>
+      </c>
+      <c r="P58">
+        <v>9411.6939999999995</v>
+      </c>
+      <c r="Q58">
+        <v>-150.286</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>14609</v>
+      </c>
+      <c r="T58">
+        <v>12335.896000000001</v>
+      </c>
+      <c r="U58">
+        <v>817.78200000000004</v>
+      </c>
+      <c r="V58">
+        <v>324.53100000000001</v>
+      </c>
+      <c r="W58">
+        <v>-116.349</v>
+      </c>
+      <c r="X58">
+        <v>-893.91399999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>1605.5630000000001</v>
+      </c>
+      <c r="AA58">
+        <v>277.54899999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>241.613</v>
+      </c>
+      <c r="D59">
+        <v>1061.7909999999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1061.7909999999999</v>
+      </c>
+      <c r="G59">
+        <v>8969.4689999999991</v>
+      </c>
+      <c r="H59">
+        <v>98377.782999999996</v>
+      </c>
+      <c r="I59">
+        <v>73594.12</v>
+      </c>
+      <c r="J59">
+        <v>10509.143</v>
+      </c>
+      <c r="K59">
+        <v>445.80900000000003</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1.7969999999999999</v>
+      </c>
+      <c r="N59">
+        <v>74117.831999999995</v>
+      </c>
+      <c r="O59">
+        <v>85849.482000000004</v>
+      </c>
+      <c r="P59">
+        <v>10954.951999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-6.5039999999999996</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>15263</v>
+      </c>
+      <c r="T59">
+        <v>12528.300999999999</v>
+      </c>
+      <c r="U59">
+        <v>1366.8530000000001</v>
+      </c>
+      <c r="V59">
+        <v>458.36599999999999</v>
+      </c>
+      <c r="W59">
+        <v>-110.999</v>
+      </c>
+      <c r="X59">
+        <v>1337.4659999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-1180.723</v>
+      </c>
+      <c r="AA59">
+        <v>241.613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>286.68799999999999</v>
+      </c>
+      <c r="D60">
+        <v>1150.155</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1150.155</v>
+      </c>
+      <c r="G60">
+        <v>6855.63</v>
+      </c>
+      <c r="H60">
+        <v>97080.076000000001</v>
+      </c>
+      <c r="I60">
+        <v>72629.619000000006</v>
+      </c>
+      <c r="J60">
+        <v>10175.912</v>
+      </c>
+      <c r="K60">
+        <v>329.86900000000003</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>73031.55</v>
+      </c>
+      <c r="O60">
+        <v>84412.078999999998</v>
+      </c>
+      <c r="P60">
+        <v>10505.781000000001</v>
+      </c>
+      <c r="Q60">
+        <v>-15.994999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>15380</v>
+      </c>
+      <c r="T60">
+        <v>12667.996999999999</v>
+      </c>
+      <c r="U60">
+        <v>1350.8579999999999</v>
+      </c>
+      <c r="V60">
+        <v>99.716999999999999</v>
+      </c>
+      <c r="W60">
+        <v>-116.914</v>
+      </c>
+      <c r="X60">
+        <v>-1363.4670000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1781.0719999999999</v>
+      </c>
+      <c r="AA60">
+        <v>286.68799999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>280.40100000000001</v>
+      </c>
+      <c r="D61">
+        <v>1088.5260000000001</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1088.5260000000001</v>
+      </c>
+      <c r="G61">
+        <v>7185.2979999999998</v>
+      </c>
+      <c r="H61">
+        <v>97797.062000000005</v>
+      </c>
+      <c r="I61">
+        <v>72944.543000000005</v>
+      </c>
+      <c r="J61">
+        <v>10174.289000000001</v>
+      </c>
+      <c r="K61">
+        <v>416.27800000000002</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>73434.296000000002</v>
+      </c>
+      <c r="O61">
+        <v>84875.127999999997</v>
+      </c>
+      <c r="P61">
+        <v>10590.566999999999</v>
+      </c>
+      <c r="Q61">
+        <v>-101.154</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>15456</v>
+      </c>
+      <c r="T61">
+        <v>12921.933999999999</v>
+      </c>
+      <c r="U61">
+        <v>1249.704</v>
+      </c>
+      <c r="V61">
+        <v>689.75699999999995</v>
+      </c>
+      <c r="W61">
+        <v>-111.239</v>
+      </c>
+      <c r="X61">
+        <v>247.578</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-328.26600000000002</v>
+      </c>
+      <c r="AA61">
+        <v>280.40100000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>270.96499999999997</v>
+      </c>
+      <c r="D62">
+        <v>1218.152</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1218.152</v>
+      </c>
+      <c r="G62">
+        <v>10186.305</v>
+      </c>
+      <c r="H62">
+        <v>122787.88400000001</v>
+      </c>
+      <c r="I62">
+        <v>91957.841</v>
+      </c>
+      <c r="J62">
+        <v>10353.858</v>
+      </c>
+      <c r="K62">
+        <v>2294.8319999999999</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>94637.817999999999</v>
+      </c>
+      <c r="O62">
+        <v>106614.595</v>
+      </c>
+      <c r="P62">
+        <v>12948.69</v>
+      </c>
+      <c r="Q62">
+        <v>118.336</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>16331</v>
+      </c>
+      <c r="T62">
+        <v>16173.289000000001</v>
+      </c>
+      <c r="U62">
+        <v>703.45399999999995</v>
+      </c>
+      <c r="V62">
+        <v>494.56799999999998</v>
+      </c>
+      <c r="W62">
+        <v>-117.13500000000001</v>
+      </c>
+      <c r="X62">
+        <v>-9683.5840000000007</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>11324.328</v>
+      </c>
+      <c r="AA62">
+        <v>270.96499999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>298.52800000000002</v>
+      </c>
+      <c r="D63">
+        <v>1243.8969999999999</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1243.8969999999999</v>
+      </c>
+      <c r="G63">
+        <v>12153.861000000001</v>
+      </c>
+      <c r="H63">
+        <v>124625.632</v>
+      </c>
+      <c r="I63">
+        <v>94214.576000000001</v>
+      </c>
+      <c r="J63">
+        <v>10341.035</v>
+      </c>
+      <c r="K63">
+        <v>2068.395</v>
+      </c>
+      <c r="L63">
+        <v>-343.83800000000002</v>
+      </c>
+      <c r="M63">
+        <v>-317.18700000000001</v>
+      </c>
+      <c r="N63">
+        <v>96363.576000000001</v>
+      </c>
+      <c r="O63">
+        <v>108270.579</v>
+      </c>
+      <c r="P63">
+        <v>12409.43</v>
+      </c>
+      <c r="Q63">
+        <v>-189.86500000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>16718</v>
+      </c>
+      <c r="T63">
+        <v>16355.053</v>
+      </c>
+      <c r="U63">
+        <v>1178.175</v>
+      </c>
+      <c r="V63">
+        <v>448.22</v>
+      </c>
+      <c r="W63">
+        <v>-129.36799999999999</v>
+      </c>
+      <c r="X63">
+        <v>1377.19</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-1604.7760000000001</v>
+      </c>
+      <c r="AA63">
+        <v>298.52800000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>336.03100000000001</v>
+      </c>
+      <c r="D64">
+        <v>1280.0730000000001</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1280.0730000000001</v>
+      </c>
+      <c r="G64">
+        <v>11394.485000000001</v>
+      </c>
+      <c r="H64">
+        <v>123820.584</v>
+      </c>
+      <c r="I64">
+        <v>94650.103000000003</v>
+      </c>
+      <c r="J64">
+        <v>10328.751</v>
+      </c>
+      <c r="K64">
+        <v>775.97699999999998</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>95506.244999999995</v>
+      </c>
+      <c r="O64">
+        <v>107349.07</v>
+      </c>
+      <c r="P64">
+        <v>11104.727999999999</v>
+      </c>
+      <c r="Q64">
+        <v>106.267</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>16814</v>
+      </c>
+      <c r="T64">
+        <v>16471.513999999999</v>
+      </c>
+      <c r="U64">
+        <v>1284.442</v>
+      </c>
+      <c r="V64">
+        <v>201.81100000000001</v>
+      </c>
+      <c r="W64">
+        <v>-134.446</v>
+      </c>
+      <c r="X64">
+        <v>-1203.721</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1643.9849999999999</v>
+      </c>
+      <c r="AA64">
+        <v>336.03100000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>349.98399999999998</v>
+      </c>
+      <c r="D65">
+        <v>1302.69</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1302.69</v>
+      </c>
+      <c r="G65">
+        <v>13826.64</v>
+      </c>
+      <c r="H65">
+        <v>126841.02800000001</v>
+      </c>
+      <c r="I65">
+        <v>98136.845000000001</v>
+      </c>
+      <c r="J65">
+        <v>10211.16</v>
+      </c>
+      <c r="K65">
+        <v>518.99300000000005</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>98732.067999999999</v>
+      </c>
+      <c r="O65">
+        <v>110500.052</v>
+      </c>
+      <c r="P65">
+        <v>10730.153</v>
+      </c>
+      <c r="Q65">
+        <v>47.76</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>16709</v>
+      </c>
+      <c r="T65">
+        <v>16340.976000000001</v>
+      </c>
+      <c r="U65">
+        <v>1332.202</v>
+      </c>
+      <c r="V65">
+        <v>422.05900000000003</v>
+      </c>
+      <c r="W65">
+        <v>-127.23099999999999</v>
+      </c>
+      <c r="X65">
+        <v>2716.8009999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-2083.8110000000001</v>
+      </c>
+      <c r="AA65">
+        <v>349.98399999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>330.57100000000003</v>
+      </c>
+      <c r="D66">
+        <v>1279.223</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1279.223</v>
+      </c>
+      <c r="G66">
+        <v>8208.4159999999993</v>
+      </c>
+      <c r="H66">
+        <v>123449.20600000001</v>
+      </c>
+      <c r="I66">
+        <v>95493.876000000004</v>
+      </c>
+      <c r="J66">
+        <v>7284.3639999999996</v>
+      </c>
+      <c r="K66">
+        <v>340.29899999999998</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>98118.817999999999</v>
+      </c>
+      <c r="O66">
+        <v>106962.584</v>
+      </c>
+      <c r="P66">
+        <v>9834.134</v>
+      </c>
+      <c r="Q66">
+        <v>-11.653</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>16000</v>
+      </c>
+      <c r="T66">
+        <v>16486.621999999999</v>
+      </c>
+      <c r="U66">
+        <v>725.71799999999996</v>
+      </c>
+      <c r="V66">
+        <v>111.321</v>
+      </c>
+      <c r="W66">
+        <v>-132.11600000000001</v>
+      </c>
+      <c r="X66">
+        <v>-3400.404</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>3935.5540000000001</v>
+      </c>
+      <c r="AA66">
+        <v>330.57100000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>348.92700000000002</v>
+      </c>
+      <c r="D67">
+        <v>1306.105</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1306.105</v>
+      </c>
+      <c r="G67">
+        <v>9245.8430000000008</v>
+      </c>
+      <c r="H67">
+        <v>123223.251</v>
+      </c>
+      <c r="I67">
+        <v>97042.520999999993</v>
+      </c>
+      <c r="J67">
+        <v>8087.6189999999997</v>
+      </c>
+      <c r="K67">
+        <v>328.34500000000003</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1401.41</v>
+      </c>
+      <c r="N67">
+        <v>97431.603000000003</v>
+      </c>
+      <c r="O67">
+        <v>107010.147</v>
+      </c>
+      <c r="P67">
+        <v>8415.9639999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-33.587000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>16409</v>
+      </c>
+      <c r="T67">
+        <v>16213.103999999999</v>
+      </c>
+      <c r="U67">
+        <v>1286.962</v>
+      </c>
+      <c r="V67">
+        <v>1285.816</v>
+      </c>
+      <c r="W67">
+        <v>-133.934</v>
+      </c>
+      <c r="X67">
+        <v>-493.39600000000002</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1670.1369999999999</v>
+      </c>
+      <c r="AA67">
+        <v>348.92700000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>381.053</v>
+      </c>
+      <c r="D68">
+        <v>1347.0160000000001</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1347.0160000000001</v>
+      </c>
+      <c r="G68">
+        <v>7529.3180000000002</v>
+      </c>
+      <c r="H68">
+        <v>120896.567</v>
+      </c>
+      <c r="I68">
+        <v>93540.937999999995</v>
+      </c>
+      <c r="J68">
+        <v>7649.58</v>
+      </c>
+      <c r="K68">
+        <v>1814.9090000000001</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>95426.051000000007</v>
+      </c>
+      <c r="O68">
+        <v>104613.03</v>
+      </c>
+      <c r="P68">
+        <v>9464.4889999999996</v>
+      </c>
+      <c r="Q68">
+        <v>58.515999999999998</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>16526</v>
+      </c>
+      <c r="T68">
+        <v>16283.537</v>
+      </c>
+      <c r="U68">
+        <v>1345.4780000000001</v>
+      </c>
+      <c r="V68">
+        <v>337.471</v>
+      </c>
+      <c r="W68">
+        <v>-133.19200000000001</v>
+      </c>
+      <c r="X68">
+        <v>-2769.76</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>2098.2959999999998</v>
+      </c>
+      <c r="AA68">
+        <v>381.053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>355.923</v>
+      </c>
+      <c r="D69">
+        <v>1386.5630000000001</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1386.5630000000001</v>
+      </c>
+      <c r="G69">
+        <v>8873.5789999999997</v>
+      </c>
+      <c r="H69">
+        <v>120401.804</v>
+      </c>
+      <c r="I69">
+        <v>93513.392999999996</v>
+      </c>
+      <c r="J69">
+        <v>8577.6450000000004</v>
+      </c>
+      <c r="K69">
+        <v>314.57600000000002</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>93897.259000000005</v>
+      </c>
+      <c r="O69">
+        <v>104083.75199999999</v>
+      </c>
+      <c r="P69">
+        <v>8892.2209999999995</v>
+      </c>
+      <c r="Q69">
+        <v>22.774000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>16478</v>
+      </c>
+      <c r="T69">
+        <v>16318.052</v>
+      </c>
+      <c r="U69">
+        <v>1368.252</v>
+      </c>
+      <c r="V69">
+        <v>442.57900000000001</v>
+      </c>
+      <c r="W69">
+        <v>-131.88200000000001</v>
+      </c>
+      <c r="X69">
+        <v>-934.34400000000005</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-559.49900000000002</v>
+      </c>
+      <c r="AA69">
+        <v>355.923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>322.40300000000002</v>
+      </c>
+      <c r="D70">
+        <v>1424.5029999999999</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1424.5029999999999</v>
+      </c>
+      <c r="G70">
+        <v>7462.4759999999997</v>
+      </c>
+      <c r="H70">
+        <v>118593.48699999999</v>
+      </c>
+      <c r="I70">
+        <v>92432.145999999993</v>
+      </c>
+      <c r="J70">
+        <v>7441.5230000000001</v>
+      </c>
+      <c r="K70">
+        <v>314.28500000000003</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>93521.979000000007</v>
+      </c>
+      <c r="O70">
+        <v>102342.66800000001</v>
+      </c>
+      <c r="P70">
+        <v>8455.7150000000001</v>
+      </c>
+      <c r="Q70">
+        <v>52.636000000000003</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>15913</v>
+      </c>
+      <c r="T70">
+        <v>16250.819</v>
+      </c>
+      <c r="U70">
+        <v>741.48699999999997</v>
+      </c>
+      <c r="V70">
+        <v>716.06899999999996</v>
+      </c>
+      <c r="W70">
+        <v>-131.12799999999999</v>
+      </c>
+      <c r="X70">
+        <v>-1879.021</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1616.153</v>
+      </c>
+      <c r="AA70">
+        <v>322.40300000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>352.61</v>
+      </c>
+      <c r="D71">
+        <v>1391.213</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1391.213</v>
+      </c>
+      <c r="G71">
+        <v>8475.5310000000009</v>
+      </c>
+      <c r="H71">
+        <v>118622.82399999999</v>
+      </c>
+      <c r="I71">
+        <v>90946.63</v>
+      </c>
+      <c r="J71">
+        <v>8591.0509999999995</v>
+      </c>
+      <c r="K71">
+        <v>1868.576</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-504.19200000000001</v>
+      </c>
+      <c r="N71">
+        <v>92881.024999999994</v>
+      </c>
+      <c r="O71">
+        <v>102913.13</v>
+      </c>
+      <c r="P71">
+        <v>10459.627</v>
+      </c>
+      <c r="Q71">
+        <v>-128.22399999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>16531</v>
+      </c>
+      <c r="T71">
+        <v>15709.694</v>
+      </c>
+      <c r="U71">
+        <v>1292.664</v>
+      </c>
+      <c r="V71">
+        <v>484.17899999999997</v>
+      </c>
+      <c r="W71">
+        <v>-129.68600000000001</v>
+      </c>
+      <c r="X71">
+        <v>-363.87299999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-616.71299999999997</v>
+      </c>
+      <c r="AA71">
+        <v>352.61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>493.16</v>
+      </c>
+      <c r="D72">
+        <v>1431.201</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1431.201</v>
+      </c>
+      <c r="G72">
+        <v>9842.98</v>
+      </c>
+      <c r="H72">
+        <v>118426.053</v>
+      </c>
+      <c r="I72">
+        <v>89272.588000000003</v>
+      </c>
+      <c r="J72">
+        <v>8382.3160000000007</v>
+      </c>
+      <c r="K72">
+        <v>3529.4369999999999</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>92889.804000000004</v>
+      </c>
+      <c r="O72">
+        <v>102848.16800000001</v>
+      </c>
+      <c r="P72">
+        <v>11911.753000000001</v>
+      </c>
+      <c r="Q72">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>16760</v>
+      </c>
+      <c r="T72">
+        <v>15577.885</v>
+      </c>
+      <c r="U72">
+        <v>1369.0940000000001</v>
+      </c>
+      <c r="V72">
+        <v>37.063000000000002</v>
+      </c>
+      <c r="W72">
+        <v>-134.13900000000001</v>
+      </c>
+      <c r="X72">
+        <v>-872.15099999999995</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>203.50700000000001</v>
+      </c>
+      <c r="AA72">
+        <v>493.16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>526.09100000000001</v>
+      </c>
+      <c r="D73">
+        <v>1472.3320000000001</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1472.3320000000001</v>
+      </c>
+      <c r="G73">
+        <v>9108.3289999999997</v>
+      </c>
+      <c r="H73">
+        <v>116827.637</v>
+      </c>
+      <c r="I73">
+        <v>89140.395999999993</v>
+      </c>
+      <c r="J73">
+        <v>9140.268</v>
+      </c>
+      <c r="K73">
+        <v>1621.078</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>90829.67</v>
+      </c>
+      <c r="O73">
+        <v>101391.552</v>
+      </c>
+      <c r="P73">
+        <v>10761.346</v>
+      </c>
+      <c r="Q73">
+        <v>-57.482999999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>16798</v>
+      </c>
+      <c r="T73">
+        <v>15436.084999999999</v>
+      </c>
+      <c r="U73">
+        <v>1311.6110000000001</v>
+      </c>
+      <c r="V73">
+        <v>1018.375</v>
+      </c>
+      <c r="W73">
+        <v>-161.18299999999999</v>
+      </c>
+      <c r="X73">
+        <v>-1949.6</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>309.613</v>
+      </c>
+      <c r="AA73">
+        <v>526.09100000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>546.21900000000005</v>
+      </c>
+      <c r="D74">
+        <v>1501.556</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1501.556</v>
+      </c>
+      <c r="G74">
+        <v>10956.186</v>
+      </c>
+      <c r="H74">
+        <v>120097.40300000001</v>
+      </c>
+      <c r="I74">
+        <v>90156.572</v>
+      </c>
+      <c r="J74">
+        <v>7799.1130000000003</v>
+      </c>
+      <c r="K74">
+        <v>4589.0640000000003</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>95486.710999999996</v>
+      </c>
+      <c r="O74">
+        <v>104637.212</v>
+      </c>
+      <c r="P74">
+        <v>13033.977999999999</v>
+      </c>
+      <c r="Q74">
+        <v>293.82799999999997</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>16413</v>
+      </c>
+      <c r="T74">
+        <v>15460.191000000001</v>
+      </c>
+      <c r="U74">
+        <v>921.43899999999996</v>
+      </c>
+      <c r="V74">
+        <v>550.23500000000001</v>
+      </c>
+      <c r="W74">
+        <v>-157.89500000000001</v>
+      </c>
+      <c r="X74">
+        <v>2690.3739999999998</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-1088.0429999999999</v>
+      </c>
+      <c r="AA74">
+        <v>546.21900000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>482.74200000000002</v>
+      </c>
+      <c r="D75">
+        <v>1528.825</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1528.825</v>
+      </c>
+      <c r="G75">
+        <v>10013.056</v>
+      </c>
+      <c r="H75">
+        <v>120025.205</v>
+      </c>
+      <c r="I75">
+        <v>90469.75</v>
+      </c>
+      <c r="J75">
+        <v>8476.0239999999994</v>
+      </c>
+      <c r="K75">
+        <v>3725.4119999999998</v>
+      </c>
+      <c r="L75">
+        <v>-795.81200000000001</v>
+      </c>
+      <c r="M75">
+        <v>-1.139</v>
+      </c>
+      <c r="N75">
+        <v>94368.944000000003</v>
+      </c>
+      <c r="O75">
+        <v>104437.67600000001</v>
+      </c>
+      <c r="P75">
+        <v>12621.394</v>
+      </c>
+      <c r="Q75">
+        <v>-338.17899999999997</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>17080</v>
+      </c>
+      <c r="T75">
+        <v>15587.529</v>
+      </c>
+      <c r="U75">
+        <v>1267.26</v>
+      </c>
+      <c r="V75">
+        <v>413.30599999999998</v>
+      </c>
+      <c r="W75">
+        <v>-156.96299999999999</v>
+      </c>
+      <c r="X75">
+        <v>-1022.746</v>
+      </c>
+      <c r="Y75">
+        <v>326.49799999999999</v>
+      </c>
+      <c r="Z75">
+        <v>686.05</v>
+      </c>
+      <c r="AA75">
+        <v>482.74200000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>473.26</v>
+      </c>
+      <c r="D76">
+        <v>1450.576</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1450.576</v>
+      </c>
+      <c r="G76">
+        <v>11852.347</v>
+      </c>
+      <c r="H76">
+        <v>121554.895</v>
+      </c>
+      <c r="I76">
+        <v>91681.024000000005</v>
+      </c>
+      <c r="J76">
+        <v>7655.5069999999996</v>
+      </c>
+      <c r="K76">
+        <v>4715.47</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>96594.766000000003</v>
+      </c>
+      <c r="O76">
+        <v>105863.068</v>
+      </c>
+      <c r="P76">
+        <v>12793.361000000001</v>
+      </c>
+      <c r="Q76">
+        <v>4.351</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>17516</v>
+      </c>
+      <c r="T76">
+        <v>15691.826999999999</v>
+      </c>
+      <c r="U76">
+        <v>1271.6110000000001</v>
+      </c>
+      <c r="V76">
+        <v>66.872</v>
+      </c>
+      <c r="W76">
+        <v>-153.334</v>
+      </c>
+      <c r="X76">
+        <v>789.59900000000005</v>
+      </c>
+      <c r="Y76">
+        <v>333.08300000000003</v>
+      </c>
+      <c r="Z76">
+        <v>-32.478000000000002</v>
+      </c>
+      <c r="AA76">
+        <v>473.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>480.08100000000002</v>
+      </c>
+      <c r="D77">
+        <v>1512.6690000000001</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1512.6690000000001</v>
+      </c>
+      <c r="G77">
+        <v>16024.047</v>
+      </c>
+      <c r="H77">
+        <v>125500.92600000001</v>
+      </c>
+      <c r="I77">
+        <v>95113.933000000005</v>
+      </c>
+      <c r="J77">
+        <v>7002.5240000000003</v>
+      </c>
+      <c r="K77">
+        <v>5617.6459999999997</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>100919.914</v>
+      </c>
+      <c r="O77">
+        <v>109721.11500000001</v>
+      </c>
+      <c r="P77">
+        <v>13045.023999999999</v>
+      </c>
+      <c r="Q77">
+        <v>547.45000000000005</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>17536</v>
+      </c>
+      <c r="T77">
+        <v>15779.811</v>
+      </c>
+      <c r="U77">
+        <v>1819.0609999999999</v>
+      </c>
+      <c r="V77">
+        <v>746.67</v>
+      </c>
+      <c r="W77">
+        <v>-151.31200000000001</v>
+      </c>
+      <c r="X77">
+        <v>3219.5880000000002</v>
+      </c>
+      <c r="Y77">
+        <v>327.142</v>
+      </c>
+      <c r="Z77">
+        <v>-2771.8589999999999</v>
+      </c>
+      <c r="AA77">
+        <v>480.08100000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>493.06599999999997</v>
+      </c>
+      <c r="D78">
+        <v>1475.873</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1475.873</v>
+      </c>
+      <c r="G78">
+        <v>10035.842000000001</v>
+      </c>
+      <c r="H78">
+        <v>119872.757</v>
+      </c>
+      <c r="I78">
+        <v>94770.069000000003</v>
+      </c>
+      <c r="J78">
+        <v>5077.7070000000003</v>
+      </c>
+      <c r="K78">
+        <v>149.45400000000001</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>96933.376000000004</v>
+      </c>
+      <c r="O78">
+        <v>104156.10799999999</v>
+      </c>
+      <c r="P78">
+        <v>7623.64</v>
+      </c>
+      <c r="Q78">
+        <v>-382.75599999999997</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>16998</v>
+      </c>
+      <c r="T78">
+        <v>15716.648999999999</v>
+      </c>
+      <c r="U78">
+        <v>770.30499999999995</v>
+      </c>
+      <c r="V78">
+        <v>1130.7070000000001</v>
+      </c>
+      <c r="W78">
+        <v>-157.983</v>
+      </c>
+      <c r="X78">
+        <v>-6240.1369999999997</v>
+      </c>
+      <c r="Y78">
+        <v>488</v>
+      </c>
+      <c r="Z78">
+        <v>6484.6049999999996</v>
+      </c>
+      <c r="AA78">
+        <v>493.06599999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>268.822</v>
+      </c>
+      <c r="D79">
+        <v>1256.165</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1256.165</v>
+      </c>
+      <c r="G79">
+        <v>12557.64</v>
+      </c>
+      <c r="H79">
+        <v>124577.833</v>
+      </c>
+      <c r="I79">
+        <v>100183.308</v>
+      </c>
+      <c r="J79">
+        <v>6321.4350000000004</v>
+      </c>
+      <c r="K79">
+        <v>223.90100000000001</v>
+      </c>
+      <c r="L79">
+        <v>-3.1829999999999998</v>
+      </c>
+      <c r="M79">
+        <v>-753.12300000000005</v>
+      </c>
+      <c r="N79">
+        <v>100495.476</v>
+      </c>
+      <c r="O79">
+        <v>108762.039</v>
+      </c>
+      <c r="P79">
+        <v>6545.3360000000002</v>
+      </c>
+      <c r="Q79">
+        <v>-138.113</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>17416</v>
+      </c>
+      <c r="T79">
+        <v>15815.794</v>
+      </c>
+      <c r="U79">
+        <v>1298.192</v>
+      </c>
+      <c r="V79">
+        <v>-394.44200000000001</v>
+      </c>
+      <c r="W79">
+        <v>-164.51400000000001</v>
+      </c>
+      <c r="X79">
+        <v>4108.692</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-1066.683</v>
+      </c>
+      <c r="AA79">
+        <v>268.822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>241.054</v>
+      </c>
+      <c r="D80">
+        <v>1119.4100000000001</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1119.4100000000001</v>
+      </c>
+      <c r="G80">
+        <v>24785.582999999999</v>
+      </c>
+      <c r="H80">
+        <v>139536.96900000001</v>
+      </c>
+      <c r="I80">
+        <v>114967.959</v>
+      </c>
+      <c r="J80">
+        <v>6321.2910000000002</v>
+      </c>
+      <c r="K80">
+        <v>207.26900000000001</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>115279.52899999999</v>
+      </c>
+      <c r="O80">
+        <v>123591.864</v>
+      </c>
+      <c r="P80">
+        <v>6528.56</v>
+      </c>
+      <c r="Q80">
+        <v>56.622999999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>17098</v>
+      </c>
+      <c r="T80">
+        <v>15945.105</v>
+      </c>
+      <c r="U80">
+        <v>1354.8150000000001</v>
+      </c>
+      <c r="V80">
+        <v>525.51900000000001</v>
+      </c>
+      <c r="W80">
+        <v>-154.33199999999999</v>
+      </c>
+      <c r="X80">
+        <v>14622.989</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-11446.548000000001</v>
+      </c>
+      <c r="AA80">
+        <v>241.054</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>372.13600000000002</v>
+      </c>
+      <c r="D81">
+        <v>1313.6559999999999</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1313.6559999999999</v>
+      </c>
+      <c r="G81">
+        <v>24407.181</v>
+      </c>
+      <c r="H81">
+        <v>138626.74299999999</v>
+      </c>
+      <c r="I81">
+        <v>115163.33900000001</v>
+      </c>
+      <c r="J81">
+        <v>5458.8850000000002</v>
+      </c>
+      <c r="K81">
+        <v>184.054</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>115413.55100000001</v>
+      </c>
+      <c r="O81">
+        <v>122525.73</v>
+      </c>
+      <c r="P81">
+        <v>5642.9390000000003</v>
+      </c>
+      <c r="Q81">
+        <v>134.417</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>16980</v>
+      </c>
+      <c r="T81">
+        <v>16101.013000000001</v>
+      </c>
+      <c r="U81">
+        <v>1489.232</v>
+      </c>
+      <c r="V81">
+        <v>-6.0119999999999996</v>
+      </c>
+      <c r="W81">
+        <v>-162.80199999999999</v>
+      </c>
+      <c r="X81">
+        <v>-826.827</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>1387.797</v>
+      </c>
+      <c r="AA81">
+        <v>372.13600000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>471.14</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1465.53</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>1465.53</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>27911.202000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>142601.10500000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>119805.738</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3532.201</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>199.96700000000001</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>121021.058</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>126413.822</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5049.4799999999996</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>63.511000000000003</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>16718</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>16187.282999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1552.7429999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>664.12199999999996</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-154.72</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>3442.8780000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>361.875</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-2803.652</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>471.14</v>
       </c>
     </row>
